--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/india_no.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/india_no.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="655">
   <si>
     <t>#id     label   a1</t>
   </si>
@@ -33,12 +33,18 @@
     <t>1,0</t>
   </si>
   <si>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg649666</t>
   </si>
   <si>
     <t>arg124182</t>
   </si>
   <si>
+    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+  </si>
+  <si>
     <t>arg155750</t>
   </si>
   <si>
@@ -48,40 +54,67 @@
     <t>0,1</t>
   </si>
   <si>
+    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg206923</t>
   </si>
   <si>
     <t>arg133725</t>
   </si>
   <si>
+    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg123962</t>
   </si>
   <si>
     <t>arg108959</t>
   </si>
   <si>
+    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg125382</t>
   </si>
   <si>
+    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg118518</t>
   </si>
   <si>
+    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
+  </si>
+  <si>
     <t>arg106123</t>
   </si>
   <si>
+    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg126375</t>
   </si>
   <si>
+    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
+  </si>
+  <si>
     <t>arg127723</t>
   </si>
   <si>
+    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg118415</t>
   </si>
   <si>
+    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg145468</t>
   </si>
   <si>
-    <t>these special</t>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
   </si>
   <si>
     <t>data</t>
@@ -105,28 +138,55 @@
     <t>arg129488</t>
   </si>
   <si>
+    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg106273</t>
   </si>
   <si>
     <t>arg119997</t>
   </si>
   <si>
+    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg122478</t>
   </si>
   <si>
+    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg110540</t>
   </si>
   <si>
+    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
+  </si>
+  <si>
+    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg207311</t>
   </si>
   <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
+  </si>
+  <si>
+    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
+  </si>
+  <si>
+    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg132199</t>
   </si>
   <si>
-    <t>r. Whooo! USA</t>
-  </si>
-  <si>
-    <t>r status,valu</t>
+    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
+  </si>
+  <si>
+    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
   </si>
   <si>
     <t>e and</t>
@@ -147,7 +207,10 @@
     <t>arg217848</t>
   </si>
   <si>
-    <t>he need of th</t>
+    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
   </si>
   <si>
     <t>e hou</t>
@@ -165,7 +228,7 @@
     <t>industrial sector.</t>
   </si>
   <si>
-    <t>it is diffic</t>
+    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
   </si>
   <si>
     <t>ult o</t>
@@ -183,10 +246,31 @@
     <t>e to say that "INDIA WILL LEAD THE WORLD WHEN IT CANNOT LEAD ITSELF!!"</t>
   </si>
   <si>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
+  </si>
+  <si>
+    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
+  </si>
+  <si>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
+  </si>
+  <si>
+    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
+  </si>
+  <si>
+    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
+  </si>
+  <si>
+    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg108968</t>
   </si>
   <si>
-    <t>at India does</t>
+    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
   </si>
   <si>
     <t>n't h</t>
@@ -204,10 +288,22 @@
     <t>n itself and is still cursing itself... &lt;br/&gt; So if it goes on so then it is difficult or even impossible to say that "INDIA WILL LEAD THE WORLD WHEN IT CANNOT LEAD ITSELF!!"</t>
   </si>
   <si>
+    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg105946</t>
   </si>
   <si>
-    <t>that full of</t>
+    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
+  </si>
+  <si>
+    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
   </si>
   <si>
     <t>tech</t>
@@ -225,7 +321,10 @@
     <t>the Americas. Well in fact technology is one of the most sophisticated and essential inventions ever created.</t>
   </si>
   <si>
-    <t>l.. but corru</t>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
+  </si>
+  <si>
+    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
   </si>
   <si>
     <t>ption</t>
@@ -243,10 +342,19 @@
     <t>stem ( not helpful to anyone) , and the main reason brain drain , don't specialy help india in the matter....</t>
   </si>
   <si>
+    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+  </si>
+  <si>
     <t>arg133726</t>
   </si>
   <si>
-    <t>. almost 90%</t>
+    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
   </si>
   <si>
     <t>of In</t>
@@ -264,10 +372,28 @@
     <t>e(don't be sure of the percentage), so an illiterate country can't lead the world.... &lt;br/&gt; 2.India is more into castes, politics, religions and less into development. &lt;br/&gt; 3.the most important thing is that India doesn't have confidence on itself and is still cursing itself... &lt;br/&gt; So if it goes on so then it is difficult or even impossible to say that "INDIA WILL LEAD THE WORLD WHEN IT CANNOT LEAD ITSELF!!"</t>
   </si>
   <si>
+    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
+  </si>
+  <si>
+    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg118214</t>
   </si>
   <si>
-    <t>the others a</t>
+    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
   </si>
   <si>
     <t>re ju</t>
@@ -285,7 +411,10 @@
     <t>don't do anything and push the people who come up, down. Nobody actually lets anyone succeed. That's why!</t>
   </si>
   <si>
-    <t>spectively bu</t>
+    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
   </si>
   <si>
     <t>t her</t>
@@ -303,7 +432,40 @@
     <t>bout the supreme power we cant rely on 2nd or 3rd. moreover the people r lazy they don't have the time 2 think about country's development they r happy at their home</t>
   </si>
   <si>
-    <t>se unique dat</t>
+    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
+  </si>
+  <si>
+    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
+  </si>
+  <si>
+    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
+  </si>
+  <si>
+    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
+  </si>
+  <si>
+    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
+  </si>
+  <si>
+    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
   </si>
   <si>
     <t>as,i</t>
@@ -321,7 +483,7 @@
     <t>ou to submit more pts. like all these plz. don't mind my words syona, but all these special datas are accurate?reply me soon!</t>
   </si>
   <si>
-    <t>impossible t</t>
+    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
   </si>
   <si>
     <t>o say</t>
@@ -339,7 +501,19 @@
     <t>L LEAD THE WORLD WHEN IT CANNOT LEAD ITSELF!!"</t>
   </si>
   <si>
-    <t>we cant rely</t>
+    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+  </si>
+  <si>
+    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
+  </si>
+  <si>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
   </si>
   <si>
     <t>on 2</t>
@@ -357,7 +531,7 @@
     <t>ver the people r lazy they don't have the time 2 think about country's development they r happy at their home</t>
   </si>
   <si>
-    <t>doesn't have</t>
+    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
   </si>
   <si>
     <t>conf</t>
@@ -375,10 +549,52 @@
     <t>and is still cursing itself... &lt;br/&gt; So if it goes on so then it is difficult or even impossible to say that "INDIA WILL LEAD THE WORLD WHEN IT CANNOT LEAD ITSELF!!"</t>
   </si>
   <si>
+    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
+  </si>
+  <si>
+    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0,115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
+  </si>
+  <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg110562</t>
   </si>
   <si>
-    <t>ia relation a</t>
+    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
+  </si>
+  <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
+  </si>
+  <si>
+    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
   </si>
   <si>
     <t>lso b</t>
@@ -396,10 +612,58 @@
     <t>china...due rise of territorial disputes and India interference in Pakistan....as Pakistan China has long term plans ....for example Pak China Economic Corridor and Gawadar Mega Oil City....</t>
   </si>
   <si>
+    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
+  </si>
+  <si>
+    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
+  </si>
+  <si>
+    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
+  </si>
+  <si>
+    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
+  </si>
+  <si>
+    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2</t>
+  </si>
+  <si>
     <t>arg118660</t>
   </si>
   <si>
-    <t>ay that "INDI</t>
+    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
+  </si>
+  <si>
+    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
+  </si>
+  <si>
+    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
+  </si>
+  <si>
+    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
   </si>
   <si>
     <t>A WIL</t>
@@ -417,7 +681,16 @@
     <t>WHEN IT CANNOT LEAD ITSELF!!"</t>
   </si>
   <si>
-    <t>ts are coming</t>
+    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
+  </si>
+  <si>
+    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
+  </si>
+  <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
   </si>
   <si>
     <t>." &lt;b</t>
@@ -435,7 +708,25 @@
     <t>r tried to take over the U.S., Americans would be forced to yell, "The red dots are coming, the red dots are coming." ;)</t>
   </si>
   <si>
-    <t>THE WORLD WH</t>
+    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
+  </si>
+  <si>
+    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
   </si>
   <si>
     <t>EN IT</t>
@@ -453,7 +744,37 @@
     <t>ELF!!"</t>
   </si>
   <si>
-    <t>one has there</t>
+    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
+  </si>
+  <si>
+    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
+  </si>
+  <si>
+    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
   </si>
   <si>
     <t>ways</t>
@@ -471,7 +792,13 @@
     <t>t logical at all</t>
   </si>
   <si>
-    <t>t,suitable wo</t>
+    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
+  </si>
+  <si>
+    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
   </si>
   <si>
     <t>rking</t>
@@ -489,7 +816,16 @@
     <t>well as proper salary.so its the need of the hour to improve our industrial sector.</t>
   </si>
   <si>
-    <t>chnology is o</t>
+    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2</t>
+  </si>
+  <si>
+    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
   </si>
   <si>
     <t>ne of</t>
@@ -507,7 +843,7 @@
     <t>ticated and essential inventions ever created.</t>
   </si>
   <si>
-    <t>anyone) , and</t>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
   </si>
   <si>
     <t>the</t>
@@ -525,7 +861,43 @@
     <t>n drain , don't specialy help india in the matter....</t>
   </si>
   <si>
-    <t>s to feed all</t>
+    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
+  </si>
+  <si>
+    <t>100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
+  </si>
+  <si>
+    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+  </si>
+  <si>
+    <t>100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
+  </si>
+  <si>
+    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
+  </si>
+  <si>
+    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
+  </si>
+  <si>
+    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
   </si>
   <si>
     <t>poor..</t>
@@ -540,7 +912,13 @@
     <t>even imagine them to lead the world...........</t>
   </si>
   <si>
-    <t>ming, the red</t>
+    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
+  </si>
+  <si>
+    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
   </si>
   <si>
     <t>dots</t>
@@ -555,7 +933,28 @@
     <t>" ;)</t>
   </si>
   <si>
-    <t>and reducing</t>
+    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
+  </si>
+  <si>
+    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
+  </si>
+  <si>
+    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
+  </si>
+  <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
   </si>
   <si>
     <t>ever</t>
@@ -564,7 +963,46 @@
     <t>y day.</t>
   </si>
   <si>
-    <t>ble, n we r p</t>
+    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
+  </si>
+  <si>
+    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
+  </si>
+  <si>
+    <t>74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
+  </si>
+  <si>
+    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
+  </si>
+  <si>
+    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
+  </si>
+  <si>
+    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
+  </si>
+  <si>
+    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0,235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
+  </si>
+  <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
   </si>
   <si>
     <t>roud</t>
@@ -582,7 +1020,10 @@
     <t>we will lead the world n be the king of the world in every manner. even 34% scientists in NASA are Indians.</t>
   </si>
   <si>
-    <t>.............</t>
+    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
   </si>
   <si>
     <t>.....</t>
@@ -594,10 +1035,37 @@
     <t>....</t>
   </si>
   <si>
-    <t>veloper</t>
-  </si>
-  <si>
-    <t>s, they cant</t>
+    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
+  </si>
+  <si>
+    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
+  </si>
+  <si>
+    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
+  </si>
+  <si>
+    <t>74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
+  </si>
+  <si>
+    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
+  </si>
+  <si>
+    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
   </si>
   <si>
     <t>even</t>
@@ -612,7 +1080,16 @@
     <t>ves.</t>
   </si>
   <si>
-    <t>tand? India's</t>
+    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
+  </si>
+  <si>
+    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
+  </si>
+  <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
   </si>
   <si>
     <t>educ</t>
@@ -630,7 +1107,7 @@
     <t>s nothing compared to Western education and it's the superpowers that control the world's economy. &lt;br/&gt; I highly doubt India will ever lead the world, and it doesn't even have the potential to. It should leave that to the superpowers.</t>
   </si>
   <si>
-    <t>our to improv</t>
+    <t>100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
   </si>
   <si>
     <t>e our</t>
@@ -648,7 +1125,31 @@
     <t>or.</t>
   </si>
   <si>
-    <t>tself could l</t>
+    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
+  </si>
+  <si>
+    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2</t>
+  </si>
+  <si>
+    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
+  </si>
+  <si>
+    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
+  </si>
+  <si>
+    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
   </si>
   <si>
     <t>ead t</t>
@@ -666,7 +1167,37 @@
     <t>Who knows maybe in the future that India could fail to lead us. There are still other countries who are more progressive, more literated, more powerful than India, like the USA, United Kingdom, Russia, Japan, etc. This nation doesn't have yet enought potentials and ability to sustain the needs of the people. India is not yet that full of technologies like in the Americas. Well in fact technology is one of the most sophisticated and essential inventions ever created.</t>
   </si>
   <si>
-    <t>the next 5 y</t>
+    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+  </si>
+  <si>
+    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
+  </si>
+  <si>
+    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
+  </si>
+  <si>
+    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
+  </si>
+  <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
   </si>
   <si>
     <t>ears.</t>
@@ -681,7 +1212,13 @@
     <t>even have enough funds to feed all the poor..how can we even imagine them to lead the world...........</t>
   </si>
   <si>
-    <t>mprove our in</t>
+    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+  </si>
+  <si>
+    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
   </si>
   <si>
     <t>dustr</t>
@@ -693,7 +1230,7 @@
     <t>ctor.</t>
   </si>
   <si>
-    <t>so its the ne</t>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
   </si>
   <si>
     <t>ed of</t>
@@ -711,7 +1248,7 @@
     <t>rove our industrial sector.</t>
   </si>
   <si>
-    <t>n every place</t>
+    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
   </si>
   <si>
     <t>. Ind</t>
@@ -729,7 +1266,7 @@
     <t>n gold medal of corrosion, terrorism , illeteracy, violence, etc.</t>
   </si>
   <si>
-    <t>d , 2nd rank</t>
+    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
   </si>
   <si>
     <t>dia in</t>
@@ -744,7 +1281,7 @@
     <t>nse and arable land respectively but here we r talking about the supreme power we cant rely on 2nd or 3rd. moreover the people r lazy they don't have the time 2 think about country's development they r happy at their home</t>
   </si>
   <si>
-    <t>l other count</t>
+    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
   </si>
   <si>
     <t>ries</t>
@@ -762,7 +1299,55 @@
     <t>gressive, more literated, more powerful than India, like the USA, United Kingdom, Russia, Japan, etc. This nation doesn't have yet enought potentials and ability to sustain the needs of the people. India is not yet that full of technologies like in the Americas. Well in fact technology is one of the most sophisticated and essential inventions ever created.</t>
   </si>
   <si>
-    <t>lack money ca</t>
+    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
+  </si>
+  <si>
+    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2</t>
+  </si>
+  <si>
+    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
+  </si>
+  <si>
+    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
+  </si>
+  <si>
+    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
   </si>
   <si>
     <t>ses.</t>
@@ -780,7 +1365,10 @@
     <t>or earn money as possible. &lt;br/&gt; 2.) they always try to make a big issue of useless topics. e.g., if a politian says something about another politian, they try to make it a big issue .</t>
   </si>
   <si>
-    <t>their own bu</t>
+    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2</t>
   </si>
   <si>
     <t>dget,</t>
@@ -798,7 +1386,79 @@
     <t>net! &lt;br/&gt; I'm going to get down-voted and insulted, but everything I have written is the truth.</t>
   </si>
   <si>
-    <t>definetly inc</t>
+    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
+  </si>
+  <si>
+    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
+  </si>
+  <si>
+    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
+  </si>
+  <si>
+    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
+  </si>
+  <si>
+    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
+  </si>
+  <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
+  </si>
+  <si>
+    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
+  </si>
+  <si>
+    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+  </si>
+  <si>
+    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
+  </si>
+  <si>
+    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
+  </si>
+  <si>
+    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+  </si>
+  <si>
+    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
   </si>
   <si>
     <t>rease</t>
@@ -816,7 +1476,49 @@
     <t>k abt. IITians,students who are qualifying iit, they are known to be superbrain.If India is capable of opening hitech institutions,then why we are unable provide them a perfect job of their level.we are giving international status of education.then why unable to take best advantages from them.this is due to brain drain,lack of industrial development,suitable working environment as well as proper salary.so its the need of the hour to improve our industrial sector.</t>
   </si>
   <si>
-    <t>istan China h</t>
+    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+  </si>
+  <si>
+    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2</t>
+  </si>
+  <si>
+    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+  </si>
+  <si>
+    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2</t>
+  </si>
+  <si>
+    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
+  </si>
+  <si>
+    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
   </si>
   <si>
     <t>as lo</t>
@@ -834,7 +1536,10 @@
     <t>..for example Pak China Economic Corridor and Gawadar Mega Oil City....</t>
   </si>
   <si>
-    <t>nfidence on i</t>
+    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
+  </si>
+  <si>
+    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
   </si>
   <si>
     <t>tself</t>
@@ -852,7 +1557,10 @@
     <t>rsing itself... &lt;br/&gt; So if it goes on so then it is difficult or even impossible to say that "INDIA WILL LEAD THE WORLD WHEN IT CANNOT LEAD ITSELF!!"</t>
   </si>
   <si>
-    <t>re saying wit</t>
+    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
   </si>
   <si>
     <t>h the</t>
@@ -870,7 +1578,55 @@
     <t>nt ;)</t>
   </si>
   <si>
-    <t>eligion, figh</t>
+    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
+  </si>
+  <si>
+    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2</t>
+  </si>
+  <si>
+    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
+  </si>
+  <si>
+    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
+  </si>
+  <si>
+    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+  </si>
+  <si>
+    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
+  </si>
+  <si>
+    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
+  </si>
+  <si>
+    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
   </si>
   <si>
     <t>t bet</t>
@@ -888,7 +1644,70 @@
     <t>igions, and a lot more............................</t>
   </si>
   <si>
-    <t>t to the supe</t>
+    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
+  </si>
+  <si>
+    <t>100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
+  </si>
+  <si>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2</t>
+  </si>
+  <si>
+    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2</t>
+  </si>
+  <si>
+    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
+  </si>
+  <si>
+    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
+  </si>
+  <si>
+    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2</t>
+  </si>
+  <si>
+    <t>74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0,58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
+  </si>
+  <si>
+    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2</t>
+  </si>
+  <si>
+    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
   </si>
   <si>
     <t>rpowe</t>
@@ -897,7 +1716,22 @@
     <t>rs.</t>
   </si>
   <si>
-    <t>of hopes n a</t>
+    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
   </si>
   <si>
     <t>spira</t>
@@ -915,7 +1749,10 @@
     <t>ans nothing is impossible, n we r proud to be Indians n we will lead the world n be the king of the world in every manner. even 34% scientists in NASA are Indians.</t>
   </si>
   <si>
-    <t>of education</t>
+    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
+  </si>
+  <si>
+    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
   </si>
   <si>
     <t>.then</t>
@@ -933,10 +1770,58 @@
     <t>ake best advantages from them.this is due to brain drain,lack of industrial development,suitable working environment as well as proper salary.so its the need of the hour to improve our industrial sector.</t>
   </si>
   <si>
-    <t>wers.</t>
-  </si>
-  <si>
-    <t>st advantages</t>
+    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
+  </si>
+  <si>
+    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
+  </si>
+  <si>
+    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+  </si>
+  <si>
+    <t>74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
+  </si>
+  <si>
+    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+  </si>
+  <si>
+    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
+  </si>
+  <si>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
+  </si>
+  <si>
+    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
+  </si>
+  <si>
+    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
   </si>
   <si>
     <t>from</t>
@@ -954,7 +1839,7 @@
     <t>e to brain drain,lack of industrial development,suitable working environment as well as proper salary.so its the need of the hour to improve our industrial sector.</t>
   </si>
   <si>
-    <t>ible. &lt;br/&gt; 2</t>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
   </si>
   <si>
     <t>.) th</t>
@@ -972,7 +1857,10 @@
     <t>make a big issue of useless topics. e.g., if a politian says something about another politian, they try to make it a big issue .</t>
   </si>
   <si>
-    <t>are giving i</t>
+    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
+  </si>
+  <si>
+    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
   </si>
   <si>
     <t>ntern</t>
@@ -990,10 +1878,64 @@
     <t>f education.then why unable to take best advantages from them.this is due to brain drain,lack of industrial development,suitable working environment as well as proper salary.so its the need of the hour to improve our industrial sector.</t>
   </si>
   <si>
-    <t>ly me soon.</t>
-  </si>
-  <si>
-    <t>you seen the</t>
+    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
+  </si>
+  <si>
+    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
+  </si>
+  <si>
+    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2</t>
+  </si>
+  <si>
+    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
+  </si>
+  <si>
+    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
+    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
+  </si>
+  <si>
+    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
+  </si>
+  <si>
+    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
+  </si>
+  <si>
+    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
+  </si>
+  <si>
+    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
+  </si>
+  <si>
+    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
+  </si>
+  <si>
+    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
+  </si>
+  <si>
+    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2</t>
+  </si>
+  <si>
+    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
   </si>
   <si>
     <t>peop</t>
@@ -1011,7 +1953,13 @@
     <t>people with good minds are in some foreign country getting a Nobel prize while the others are just stuck ups who don't do anything and push the people who come up, down. Nobody actually lets anyone succeed. That's why!</t>
   </si>
   <si>
-    <t>trial develop</t>
+    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
+    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
+  </si>
+  <si>
+    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
   </si>
   <si>
     <t>ment,</t>
@@ -1024,6 +1972,15 @@
   </si>
   <si>
     <t>environment as well as proper salary.so its the need of the hour to improve our industrial sector.</t>
+  </si>
+  <si>
+    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
+    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+  </si>
+  <si>
+    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
   </si>
 </sst>
 </file>
@@ -1411,8 +2368,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="11.2388663967611"/>
-    <col customWidth="1" max="1025" min="2" width="8.5748987854251"/>
+    <col customWidth="1" max="1" min="1" style="2" width="11.2388663967611"/>
+    <col customWidth="1" max="1025" min="2" style="2" width="8.5748987854251"/>
   </cols>
   <sheetData>
     <row customHeight="1" s="2" r="1" ht="15" spans="1:9">
@@ -1433,60 +2390,78 @@
       <c s="0" r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row customHeight="1" s="2" r="3" ht="15" spans="1:9">
       <c s="1" r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="C3" t="s">
         <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="4" ht="15" spans="1:9">
       <c s="1" r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="5" ht="15" spans="1:9">
       <c s="1" r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="C5" t="s">
         <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="6" ht="15" spans="1:9">
       <c s="1" r="A6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="B6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="7" ht="15" spans="1:9">
       <c s="1" r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="8" ht="15" spans="1:9">
@@ -1494,32 +2469,41 @@
         <v>3</v>
       </c>
       <c s="0" r="B8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="C8" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="9" ht="15" spans="1:9">
       <c s="1" r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="B9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="C9" t="s">
         <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="10" ht="15" spans="1:9">
       <c s="1" r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="B10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="C10" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="11" ht="15" spans="1:9">
@@ -1527,26 +2511,32 @@
         <v>3</v>
       </c>
       <c s="0" r="B11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="C11" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="12" ht="15" spans="1:9">
       <c s="1" r="A12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="B12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="C12" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="13" ht="15" spans="1:9">
       <c s="1" r="A13" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B13" t="s">
         <v>3</v>
@@ -1555,204 +2545,234 @@
         <v>4</v>
       </c>
       <c s="0" r="D13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c s="0" r="E13" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c s="0" r="F13" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c s="0" r="G13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c s="0" r="H13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c s="0" r="I13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="14" ht="15" spans="1:9">
       <c s="1" r="A14" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="B14" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="C14" t="s">
         <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="15" ht="15" spans="1:9">
       <c s="1" r="A15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="B15" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C15" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="16" ht="15" spans="1:9">
       <c s="1" r="A16" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="B16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="C16" t="s">
         <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="17" ht="15" spans="1:9">
       <c s="1" r="A17" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="C17" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="18" ht="15" spans="1:9">
       <c s="1" r="A18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="B18" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="C18" t="s">
         <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="19" ht="15" spans="1:9">
       <c s="1" r="A19" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B19" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="C19" t="s">
         <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="20" ht="15" spans="1:9">
       <c s="1" r="A20" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="B20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="C20" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="21" ht="15" spans="1:9">
       <c s="1" r="A21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="B21" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="C21" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="22" ht="15" spans="1:9">
       <c s="1" r="A22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="B22" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="C22" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="23" ht="15" spans="1:9">
       <c s="1" r="A23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="B23" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="C23" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D23" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="24" ht="15" spans="1:9">
       <c s="1" r="A24" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="B24" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="C24" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D24" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c s="0" r="E24" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c s="0" r="F24" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c s="0" r="G24" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c s="0" r="H24" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c s="0" r="I24" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="25" ht="15" spans="1:9">
       <c s="1" r="A25" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="B25" t="s">
         <v>2</v>
       </c>
       <c s="0" r="C25" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="26" ht="15" spans="1:9">
       <c s="1" r="A26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="B26" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="C26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D26" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c s="0" r="E26" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c s="0" r="F26" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c s="0" r="G26" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c s="0" r="H26" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c s="0" r="I26" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="27" ht="15" spans="1:9">
@@ -1760,28 +2780,28 @@
         <v>3</v>
       </c>
       <c s="0" r="B27" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="C27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D27" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c s="0" r="E27" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c s="0" r="F27" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c s="0" r="G27" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c s="0" r="H27" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c s="0" r="I27" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="28" ht="15" spans="1:9">
@@ -1789,10 +2809,13 @@
         <v>2</v>
       </c>
       <c s="0" r="B28" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="C28" t="s">
         <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="29" ht="15" spans="1:9">
@@ -1800,21 +2823,27 @@
         <v>3</v>
       </c>
       <c s="0" r="B29" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="C29" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="30" ht="15" spans="1:9">
       <c s="1" r="A30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="B30" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="C30" t="s">
         <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="31" ht="15" spans="1:9">
@@ -1822,145 +2851,169 @@
         <v>2</v>
       </c>
       <c s="0" r="B31" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="C31" t="s">
         <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="32" ht="15" spans="1:9">
       <c s="1" r="A32" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="B32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="C32" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="33" ht="15" spans="1:9">
       <c s="1" r="A33" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="B33" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="C33" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="34" ht="15" spans="1:9">
       <c s="1" r="A34" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="B34" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="C34" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="35" ht="15" spans="1:9">
       <c s="1" r="A35" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="B35" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="C35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D35" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c s="0" r="E35" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c s="0" r="F35" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c s="0" r="G35" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c s="0" r="H35" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c s="0" r="I35" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="36" ht="15" spans="1:9">
       <c s="1" r="A36" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="B36" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="C36" t="s">
         <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="37" ht="15" spans="1:9">
       <c s="1" r="A37" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="B37" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="C37" t="s">
         <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="38" ht="15" spans="1:9">
       <c s="1" r="A38" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="B38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="C38" t="s">
         <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>93</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="39" ht="15" spans="1:9">
       <c s="1" r="A39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="B39" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="C39" t="s">
         <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="40" ht="15" spans="1:9">
       <c s="1" r="A40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="B40" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="C40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D40" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c s="0" r="E40" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c s="0" r="F40" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c s="0" r="G40" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c s="0" r="H40" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c s="0" r="I40" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="41" ht="15" spans="1:9">
@@ -1968,50 +3021,56 @@
         <v>2</v>
       </c>
       <c s="0" r="B41" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="C41" t="s">
         <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="42" ht="15" spans="1:9">
       <c s="1" r="A42" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="B42" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="C42" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D42" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c s="0" r="E42" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c s="0" r="F42" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c s="0" r="G42" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c s="0" r="H42" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c s="0" r="I42" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="43" ht="15" spans="1:9">
       <c s="1" r="A43" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="B43" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="C43" t="s">
         <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>108</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="44" ht="15" spans="1:9">
@@ -2019,10 +3078,13 @@
         <v>2</v>
       </c>
       <c s="0" r="B44" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="C44" t="s">
         <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>109</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="45" ht="15" spans="1:9">
@@ -2030,83 +3092,98 @@
         <v>3</v>
       </c>
       <c s="0" r="B45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="C45" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="46" ht="15" spans="1:9">
       <c s="1" r="A46" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="B46" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="C46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D46" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c s="0" r="E46" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c s="0" r="F46" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c s="0" r="G46" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c s="0" r="H46" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c s="0" r="I46" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="47" ht="15" spans="1:9">
       <c s="1" r="A47" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="B47" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="C47" t="s">
         <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>118</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="48" ht="15" spans="1:9">
       <c s="1" r="A48" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="B48" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="C48" t="s">
         <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="49" ht="15" spans="1:9">
       <c s="1" r="A49" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="B49" t="s">
         <v>2</v>
       </c>
       <c s="0" r="C49" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>120</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="50" ht="15" spans="1:9">
       <c s="1" r="A50" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="B50" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="C50" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>121</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="51" ht="15" spans="1:9">
@@ -2114,216 +3191,258 @@
         <v>3</v>
       </c>
       <c s="0" r="B51" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="C51" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>123</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="52" ht="15" spans="1:9">
       <c s="1" r="A52" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="B52" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="C52" t="s">
         <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>124</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="53" ht="15" spans="1:9">
       <c s="1" r="A53" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="B53" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="C53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D53" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c s="0" r="E53" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c s="0" r="F53" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c s="0" r="G53" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c s="0" r="H53" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c s="0" r="I53" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="54" ht="15" spans="1:9">
       <c s="1" r="A54" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="B54" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="C54" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>131</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="55" ht="15" spans="1:9">
       <c s="1" r="A55" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="C55" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D55" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c s="0" r="E55" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c s="0" r="F55" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c s="0" r="G55" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c s="0" r="H55" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c s="0" r="I55" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="56" ht="15" spans="1:9">
       <c s="1" r="A56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="B56" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="C56" t="s">
         <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>138</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="57" ht="15" spans="1:9">
       <c s="1" r="A57" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="B57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="C57" t="s">
         <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>139</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="58" ht="15" spans="1:9">
       <c s="1" r="A58" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="B58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="C58" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>140</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="59" ht="15" spans="1:9">
       <c s="1" r="A59" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="B59" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="C59" t="s">
         <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>141</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="60" ht="15" spans="1:9">
       <c s="1" r="A60" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="B60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="C60" t="s">
         <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>142</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="61" ht="15" spans="1:9">
       <c s="1" r="A61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="B61" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="C61" t="s">
         <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>143</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="62" ht="15" spans="1:9">
       <c s="1" r="A62" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="B62" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="C62" t="s">
         <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>144</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="63" ht="15" spans="1:9">
       <c s="1" r="A63" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="B63" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C63" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>145</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="64" ht="15" spans="1:9">
       <c s="1" r="A64" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="B64" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="C64" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>146</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="65" ht="15" spans="1:9">
       <c s="1" r="A65" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="B65" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="C65" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>147</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="66" ht="15" spans="1:9">
       <c s="1" r="A66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="B66" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="C66" t="s">
         <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>148</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="67" ht="15" spans="1:9">
       <c s="1" r="A67" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="B67" t="s">
         <v>3</v>
@@ -2332,84 +3451,93 @@
         <v>4</v>
       </c>
       <c s="0" r="D67" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c s="0" r="E67" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c s="0" r="F67" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c s="0" r="G67" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c s="0" r="H67" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c s="0" r="I67" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="68" ht="15" spans="1:9">
       <c s="1" r="A68" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="B68" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="C68" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D68" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c s="0" r="E68" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c s="0" r="F68" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c s="0" r="G68" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c s="0" r="H68" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c s="0" r="I68" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="69" ht="15" spans="1:9">
       <c s="1" r="A69" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="B69" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="C69" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>161</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="70" ht="15" spans="1:9">
       <c s="1" r="A70" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="B70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="C70" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>162</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="71" ht="15" spans="1:9">
       <c s="1" r="A71" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="B71" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="C71" t="s">
         <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>163</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="72" ht="15" spans="1:9">
@@ -2417,161 +3545,188 @@
         <v>2</v>
       </c>
       <c s="0" r="B72" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="C72" t="s">
         <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>164</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="73" ht="15" spans="1:9">
       <c s="1" r="A73" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="C73" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D73" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c s="0" r="E73" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c s="0" r="F73" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c s="0" r="G73" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c s="0" r="H73" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c s="0" r="I73" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="74" ht="15" spans="1:9">
       <c s="1" r="A74" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="B74" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="C74" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D74" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c s="0" r="E74" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c s="0" r="F74" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c s="0" r="G74" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c s="0" r="H74" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c s="0" r="I74" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="75" ht="15" spans="1:9">
       <c s="1" r="A75" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="B75" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="C75" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="76" ht="15" spans="1:9">
       <c s="1" r="A76" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="B76" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="C76" t="s">
         <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>178</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="77" ht="15" spans="1:9">
       <c s="1" r="A77" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="B77" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="C77" t="s">
         <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>179</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="78" ht="15" spans="1:9">
       <c s="1" r="A78" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="B78" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="C78" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>180</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="79" ht="15" spans="1:9">
       <c s="1" r="A79" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="B79" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="C79" t="s">
         <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>181</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="80" ht="15" spans="1:9">
       <c s="1" r="A80" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B80" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="C80" t="s">
         <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>182</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="81" ht="15" spans="1:9">
       <c s="1" r="A81" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="B81" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="C81" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>184</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="82" ht="15" spans="1:9">
       <c s="1" r="A82" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B82" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="C82" t="s">
         <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>185</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="83" ht="15" spans="1:9">
       <c s="1" r="A83" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="B83" t="s">
         <v>3</v>
@@ -2579,188 +3734,233 @@
       <c s="0" r="C83" t="s">
         <v>4</v>
       </c>
+      <c r="D83" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row customHeight="1" s="2" r="84" ht="15" spans="1:9">
       <c s="1" r="A84" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="B84" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="C84" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>187</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="85" ht="15" spans="1:9">
       <c s="1" r="A85" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="B85" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="C85" t="s">
         <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>188</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="86" ht="15" spans="1:9">
       <c s="1" r="A86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="B86" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="C86" t="s">
         <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>189</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="87" ht="15" spans="1:9">
       <c s="1" r="A87" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B87" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="C87" t="s">
         <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>190</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="88" ht="15" spans="1:9">
       <c s="1" r="A88" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="B88" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="C88" t="s">
         <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>191</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="89" ht="15" spans="1:9">
       <c s="1" r="A89" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="B89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="C89" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D89" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c s="0" r="E89" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c s="0" r="F89" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c s="0" r="G89" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c s="0" r="H89" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c s="0" r="I89" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="90" ht="15" spans="1:9">
       <c s="1" r="A90" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="B90" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="C90" t="s">
         <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>198</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="91" ht="15" spans="1:9">
       <c s="1" r="A91" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B91" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C91" t="s">
         <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>199</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="92" ht="15" spans="1:9">
       <c s="1" r="A92" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="B92" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="C92" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>200</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="93" ht="15" spans="1:9">
       <c s="1" r="A93" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="B93" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="C93" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>201</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="94" ht="15" spans="1:9">
       <c s="1" r="A94" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="B94" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="C94" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>202</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="95" ht="15" spans="1:9">
       <c s="1" r="A95" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="B95" t="s">
         <v>2</v>
       </c>
       <c s="0" r="C95" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>203</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="96" ht="15" spans="1:9">
       <c s="1" r="A96" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="B96" t="s">
         <v>2</v>
       </c>
       <c s="0" r="C96" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>204</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="97" ht="15" spans="1:9">
       <c s="1" r="A97" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="B97" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="C97" t="s">
         <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>205</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="98" ht="15" spans="1:9">
       <c s="1" r="A98" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="B98" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="C98" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>206</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="99" ht="15" spans="1:9">
@@ -2768,10 +3968,13 @@
         <v>3</v>
       </c>
       <c s="0" r="B99" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="C99" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>207</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="100" ht="15" spans="1:9">
@@ -2779,21 +3982,27 @@
         <v>3</v>
       </c>
       <c s="0" r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="C100" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>208</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="101" ht="15" spans="1:9">
       <c s="1" r="A101" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="B101" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="C101" t="s">
         <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>209</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="102" ht="15" spans="1:9">
@@ -2801,77 +4010,89 @@
         <v>3</v>
       </c>
       <c s="0" r="B102" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="C102" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>210</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="103" ht="15" spans="1:9">
       <c s="1" r="A103" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="B103" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="C103" t="s">
         <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>212</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="104" ht="15" spans="1:9">
       <c s="1" r="A104" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="B104" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="C104" t="s">
         <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>213</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="105" ht="15" spans="1:9">
       <c s="1" r="A105" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="B105" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="C105" t="s">
         <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>214</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="106" ht="15" spans="1:9">
       <c s="1" r="A106" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="B106" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="C106" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D106" t="s">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c s="0" r="E106" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c s="0" r="F106" t="s">
-        <v>129</v>
+        <v>217</v>
       </c>
       <c s="0" r="G106" t="s">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c s="0" r="H106" t="s">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c s="0" r="I106" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="107" ht="15" spans="1:9">
       <c s="1" r="A107" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="B107" t="s">
         <v>3</v>
@@ -2879,89 +4100,107 @@
       <c s="0" r="C107" t="s">
         <v>4</v>
       </c>
+      <c r="D107" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row customHeight="1" s="2" r="108" ht="15" spans="1:9">
       <c s="1" r="A108" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="B108" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="C108" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>222</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="109" ht="15" spans="1:9">
       <c s="1" r="A109" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="C109" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D109" t="s">
+        <v>223</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="110" ht="15" spans="1:9">
       <c s="1" r="A110" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B110" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="C110" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D110" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c s="0" r="E110" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c s="0" r="F110" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c s="0" r="G110" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c s="0" r="H110" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c s="0" r="I110" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="111" ht="15" spans="1:9">
       <c s="1" r="A111" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="B111" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="C111" t="s">
         <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>230</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="112" ht="15" spans="1:9">
       <c s="1" r="A112" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="B112" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="C112" t="s">
         <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>231</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="113" ht="15" spans="1:9">
       <c s="1" r="A113" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="B113" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C113" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>232</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="114" ht="15" spans="1:9">
@@ -2969,116 +4208,140 @@
         <v>2</v>
       </c>
       <c s="0" r="B114" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="C114" t="s">
         <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>233</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="115" ht="15" spans="1:9">
       <c s="1" r="A115" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="B115" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="C115" t="s">
         <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>234</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="116" ht="15" spans="1:9">
       <c s="1" r="A116" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="B116" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="C116" t="s">
         <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>235</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="117" ht="15" spans="1:9">
       <c s="1" r="A117" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="B117" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="C117" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D117" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c s="0" r="E117" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c s="0" r="F117" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c s="0" r="G117" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c s="0" r="H117" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c s="0" r="I117" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="118" ht="15" spans="1:9">
       <c s="1" r="A118" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="B118" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="C118" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
+        <v>242</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="119" ht="15" spans="1:9">
       <c s="1" r="A119" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="B119" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="C119" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>243</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="120" ht="15" spans="1:9">
       <c s="1" r="A120" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="B120" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="C120" t="s">
         <v>4</v>
+      </c>
+      <c r="D120" t="s">
+        <v>244</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="121" ht="15" spans="1:9">
       <c s="1" r="A121" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="B121" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="C121" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>245</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="122" ht="15" spans="1:9">
       <c s="1" r="A122" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="B122" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="C122" t="s">
         <v>4</v>
+      </c>
+      <c r="D122" t="s">
+        <v>246</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="123" ht="15" spans="1:9">
@@ -3086,43 +4349,55 @@
         <v>2</v>
       </c>
       <c s="0" r="B123" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="C123" t="s">
         <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>247</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="124" ht="15" spans="1:9">
       <c s="1" r="A124" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="B124" t="s">
         <v>2</v>
       </c>
       <c s="0" r="C124" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D124" t="s">
+        <v>248</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="125" ht="15" spans="1:9">
       <c s="1" r="A125" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="B125" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="C125" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>249</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="126" ht="15" spans="1:9">
       <c s="1" r="A126" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="B126" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="C126" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>250</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="127" ht="15" spans="1:9">
@@ -3130,101 +4405,113 @@
         <v>3</v>
       </c>
       <c s="0" r="B127" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="C127" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D127" t="s">
+        <v>251</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="128" ht="15" spans="1:9">
       <c s="1" r="A128" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="B128" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="C128" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D128" t="s">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c s="0" r="E128" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c s="0" r="F128" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c s="0" r="G128" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c s="0" r="H128" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c s="0" r="I128" t="s">
-        <v>150</v>
+        <v>257</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="129" ht="15" spans="1:9">
       <c s="1" r="A129" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="B129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="C129" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D129" t="s">
+        <v>258</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="130" ht="15" spans="1:9">
       <c s="1" r="A130" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="B130" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="C130" t="s">
         <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="131" ht="15" spans="1:9">
       <c s="1" r="A131" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="B131" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="C131" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D131" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c s="0" r="E131" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c s="0" r="F131" t="s">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c s="0" r="G131" t="s">
-        <v>154</v>
+        <v>263</v>
       </c>
       <c s="0" r="H131" t="s">
-        <v>155</v>
+        <v>264</v>
       </c>
       <c s="0" r="I131" t="s">
-        <v>156</v>
+        <v>265</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="132" ht="15" spans="1:9">
       <c s="1" r="A132" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="B132" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="C132" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D132" t="s">
+        <v>266</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="133" ht="15" spans="1:9">
@@ -3232,456 +4519,543 @@
         <v>3</v>
       </c>
       <c s="0" r="B133" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="C133" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D133" t="s">
+        <v>267</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="134" ht="15" spans="1:9">
       <c s="1" r="A134" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="B134" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="C134" t="s">
         <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>268</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="135" ht="15" spans="1:9">
       <c s="1" r="A135" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="B135" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="C135" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D135" t="s">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c s="0" r="E135" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c s="0" r="F135" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c s="0" r="G135" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c s="0" r="H135" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c s="0" r="I135" t="s">
-        <v>162</v>
+        <v>274</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="136" ht="15" spans="1:9">
       <c s="1" r="A136" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B136" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="C136" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D136" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c s="0" r="E136" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c s="0" r="F136" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c s="0" r="G136" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c s="0" r="H136" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c s="0" r="I136" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="137" ht="15" spans="1:9">
       <c s="1" r="A137" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="B137" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="C137" t="s">
         <v>4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>281</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="138" ht="15" spans="1:9">
       <c s="1" r="A138" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="B138" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="C138" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D138" t="s">
+        <v>282</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="139" ht="15" spans="1:9">
       <c s="1" r="A139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="B139" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="C139" t="s">
         <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>283</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="140" ht="15" spans="1:9">
       <c s="1" r="A140" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="B140" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="C140" t="s">
         <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>284</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="141" ht="15" spans="1:9">
       <c s="1" r="A141" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="B141" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="C141" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D141" t="s">
+        <v>285</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="142" ht="15" spans="1:9">
       <c s="1" r="A142" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="B142" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="C142" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D142" t="s">
+        <v>286</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="143" ht="15" spans="1:9">
       <c s="1" r="A143" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="B143" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="C143" t="s">
         <v>4</v>
+      </c>
+      <c r="D143" t="s">
+        <v>287</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="144" ht="15" spans="1:9">
       <c s="1" r="A144" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="B144" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="C144" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D144" t="s">
+        <v>288</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="145" ht="15" spans="1:9">
       <c s="1" r="A145" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="B145" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="C145" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D145" t="s">
+        <v>289</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="146" ht="15" spans="1:9">
       <c s="1" r="A146" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="B146" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="C146" t="s">
         <v>4</v>
+      </c>
+      <c r="D146" t="s">
+        <v>290</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="147" ht="15" spans="1:9">
       <c s="1" r="A147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="B147" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="C147" t="s">
         <v>4</v>
+      </c>
+      <c r="D147" t="s">
+        <v>291</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="148" ht="15" spans="1:9">
       <c s="1" r="A148" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="B148" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="C148" t="s">
         <v>4</v>
+      </c>
+      <c r="D148" t="s">
+        <v>292</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="149" ht="15" spans="1:9">
       <c s="1" r="A149" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="B149" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="C149" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D149" t="s">
-        <v>169</v>
+        <v>293</v>
       </c>
       <c s="0" r="E149" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c s="0" r="F149" t="s">
-        <v>170</v>
+        <v>294</v>
       </c>
       <c s="0" r="G149" t="s">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c s="0" r="H149" t="s">
-        <v>172</v>
+        <v>296</v>
       </c>
       <c s="0" r="I149" t="s">
-        <v>173</v>
+        <v>297</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="150" ht="15" spans="1:9">
       <c s="1" r="A150" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="B150" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="C150" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D150" t="s">
+        <v>298</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="151" ht="15" spans="1:9">
       <c s="1" r="A151" t="s">
+        <v>41</v>
+      </c>
+      <c s="0" r="B151" t="s">
         <v>29</v>
       </c>
-      <c s="0" r="B151" t="s">
-        <v>19</v>
-      </c>
       <c s="0" r="C151" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D151" t="s">
+        <v>299</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="152" ht="15" spans="1:9">
       <c s="1" r="A152" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="B152" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="C152" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D152" t="s">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c s="0" r="E152" t="s">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c s="0" r="F152" t="s">
-        <v>176</v>
+        <v>302</v>
       </c>
       <c s="0" r="G152" t="s">
-        <v>177</v>
+        <v>303</v>
       </c>
       <c s="0" r="H152" t="s">
-        <v>178</v>
+        <v>304</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="153" ht="15" spans="1:9">
       <c s="1" r="A153" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="B153" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="C153" t="s">
         <v>4</v>
+      </c>
+      <c r="D153" t="s">
+        <v>305</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="154" ht="15" spans="1:9">
       <c s="1" r="A154" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="B154" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="C154" t="s">
         <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>306</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="155" ht="15" spans="1:9">
       <c s="1" r="A155" t="s">
+        <v>91</v>
+      </c>
+      <c s="0" r="B155" t="s">
         <v>62</v>
       </c>
-      <c s="0" r="B155" t="s">
-        <v>42</v>
-      </c>
       <c s="0" r="C155" t="s">
         <v>4</v>
+      </c>
+      <c r="D155" t="s">
+        <v>307</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="156" ht="15" spans="1:9">
       <c s="1" r="A156" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="B156" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="C156" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
+        <v>308</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="157" ht="15" spans="1:9">
       <c s="1" r="A157" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="B157" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="C157" t="s">
         <v>4</v>
+      </c>
+      <c r="D157" t="s">
+        <v>309</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="158" ht="15" spans="1:9">
       <c s="1" r="A158" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="B158" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="C158" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D158" t="s">
+        <v>310</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="159" ht="15" spans="1:9">
       <c s="1" r="A159" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="B159" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="C159" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D159" t="s">
+        <v>311</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="160" ht="15" spans="1:9">
       <c s="1" r="A160" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B160" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="C160" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D160" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c s="0" r="E160" t="s">
-        <v>180</v>
+        <v>313</v>
       </c>
       <c s="0" r="F160" t="s">
-        <v>181</v>
+        <v>314</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="161" ht="15" spans="1:9">
       <c s="1" r="A161" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="B161" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="C161" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D161" t="s">
+        <v>315</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="162" ht="15" spans="1:9">
       <c s="1" r="A162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="B162" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="C162" t="s">
         <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>316</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="163" ht="15" spans="1:9">
       <c s="1" r="A163" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="B163" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="C163" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D163" t="s">
+        <v>317</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="164" ht="15" spans="1:9">
       <c s="1" r="A164" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="B164" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="C164" t="s">
         <v>4</v>
+      </c>
+      <c r="D164" t="s">
+        <v>318</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="165" ht="15" spans="1:9">
       <c s="1" r="A165" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="B165" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="C165" t="s">
         <v>4</v>
+      </c>
+      <c r="D165" t="s">
+        <v>319</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="166" ht="15" spans="1:9">
       <c s="1" r="A166" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="B166" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="C166" t="s">
         <v>4</v>
+      </c>
+      <c r="D166" t="s">
+        <v>320</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="167" ht="15" spans="1:9">
       <c s="1" r="A167" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="B167" t="s">
         <v>3</v>
@@ -3689,32 +5063,41 @@
       <c s="0" r="C167" t="s">
         <v>4</v>
       </c>
+      <c r="D167" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row customHeight="1" s="2" r="168" ht="15" spans="1:9">
       <c s="1" r="A168" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="B168" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="C168" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D168" t="s">
+        <v>322</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="169" ht="15" spans="1:9">
       <c s="1" r="A169" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="B169" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="C169" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D169" t="s">
+        <v>323</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="170" ht="15" spans="1:9">
       <c s="1" r="A170" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="B170" t="s">
         <v>3</v>
@@ -3722,632 +5105,743 @@
       <c s="0" r="C170" t="s">
         <v>4</v>
       </c>
+      <c r="D170" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row customHeight="1" s="2" r="171" ht="15" spans="1:9">
       <c s="1" r="A171" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="B171" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="C171" t="s">
         <v>4</v>
+      </c>
+      <c r="D171" t="s">
+        <v>325</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="172" ht="15" spans="1:9">
       <c s="1" r="A172" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="B172" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="C172" t="s">
         <v>4</v>
+      </c>
+      <c r="D172" t="s">
+        <v>326</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="173" ht="15" spans="1:9">
       <c s="1" r="A173" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="B173" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="C173" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D173" t="s">
+        <v>327</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="174" ht="15" spans="1:9">
       <c s="1" r="A174" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B174" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="C174" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D174" t="s">
-        <v>182</v>
+        <v>328</v>
       </c>
       <c s="0" r="E174" t="s">
-        <v>183</v>
+        <v>329</v>
       </c>
       <c s="0" r="F174" t="s">
-        <v>184</v>
+        <v>330</v>
       </c>
       <c s="0" r="G174" t="s">
-        <v>185</v>
+        <v>331</v>
       </c>
       <c s="0" r="H174" t="s">
-        <v>186</v>
+        <v>332</v>
       </c>
       <c s="0" r="I174" t="s">
-        <v>187</v>
+        <v>333</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="175" ht="15" spans="1:9">
       <c s="1" r="A175" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="B175" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C175" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>334</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="176" ht="15" spans="1:9">
       <c s="1" r="A176" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B176" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="C176" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D176" t="s">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c s="0" r="E176" t="s">
-        <v>189</v>
+        <v>336</v>
       </c>
       <c s="0" r="F176" t="s">
-        <v>190</v>
+        <v>337</v>
       </c>
       <c s="0" r="G176" t="s">
-        <v>191</v>
+        <v>338</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="177" ht="15" spans="1:9">
       <c s="1" r="A177" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="B177" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="C177" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D177" t="s">
-        <v>192</v>
+        <v>339</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="178" ht="15" spans="1:9">
       <c s="1" r="A178" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="B178" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="C178" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D178" t="s">
+        <v>340</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="179" ht="15" spans="1:9">
       <c s="1" r="A179" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="B179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="C179" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D179" t="s">
+        <v>341</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="180" ht="15" spans="1:9">
       <c s="1" r="A180" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="B180" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="C180" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D180" t="s">
+        <v>342</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="181" ht="15" spans="1:9">
       <c s="1" r="A181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="B181" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="C181" t="s">
         <v>4</v>
+      </c>
+      <c r="D181" t="s">
+        <v>343</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="182" ht="15" spans="1:9">
       <c s="1" r="A182" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="B182" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="C182" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D182" t="s">
+        <v>344</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="183" ht="15" spans="1:9">
       <c s="1" r="A183" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="B183" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="C183" t="s">
         <v>4</v>
+      </c>
+      <c r="D183" t="s">
+        <v>345</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="184" ht="15" spans="1:9">
       <c s="1" r="A184" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="B184" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="C184" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D184" t="s">
+        <v>346</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="185" ht="15" spans="1:9">
       <c s="1" r="A185" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="B185" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="C185" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D185" t="s">
+        <v>347</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="186" ht="15" spans="1:9">
       <c s="1" r="A186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="B186" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="C186" t="s">
         <v>4</v>
+      </c>
+      <c r="D186" t="s">
+        <v>348</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="187" ht="15" spans="1:9">
       <c s="1" r="A187" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="B187" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="C187" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D187" t="s">
-        <v>193</v>
+        <v>349</v>
       </c>
       <c s="0" r="E187" t="s">
-        <v>194</v>
+        <v>350</v>
       </c>
       <c s="0" r="F187" t="s">
-        <v>195</v>
+        <v>351</v>
       </c>
       <c s="0" r="G187" t="s">
-        <v>196</v>
+        <v>352</v>
       </c>
       <c s="0" r="H187" t="s">
-        <v>197</v>
+        <v>353</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="188" ht="15" spans="1:9">
       <c s="1" r="A188" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="B188" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="C188" t="s">
         <v>4</v>
+      </c>
+      <c r="D188" t="s">
+        <v>354</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="189" ht="15" spans="1:9">
       <c s="1" r="A189" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="B189" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="C189" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D189" t="s">
+        <v>355</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="190" ht="15" spans="1:9">
       <c s="1" r="A190" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="B190" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="C190" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D190" t="s">
+        <v>356</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="191" ht="15" spans="1:9">
       <c s="1" r="A191" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B191" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="C191" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D191" t="s">
-        <v>198</v>
+        <v>357</v>
       </c>
       <c s="0" r="E191" t="s">
-        <v>199</v>
+        <v>358</v>
       </c>
       <c s="0" r="F191" t="s">
-        <v>200</v>
+        <v>359</v>
       </c>
       <c s="0" r="G191" t="s">
-        <v>201</v>
+        <v>360</v>
       </c>
       <c s="0" r="H191" t="s">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c s="0" r="I191" t="s">
-        <v>203</v>
+        <v>362</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="192" ht="15" spans="1:9">
       <c s="1" r="A192" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="B192" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="C192" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D192" t="s">
-        <v>204</v>
+        <v>363</v>
       </c>
       <c s="0" r="E192" t="s">
-        <v>205</v>
+        <v>364</v>
       </c>
       <c s="0" r="F192" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
       <c s="0" r="G192" t="s">
-        <v>207</v>
+        <v>366</v>
       </c>
       <c s="0" r="H192" t="s">
-        <v>208</v>
+        <v>367</v>
       </c>
       <c s="0" r="I192" t="s">
-        <v>209</v>
+        <v>368</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="193" ht="15" spans="1:9">
       <c s="1" r="A193" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="B193" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="C193" t="s">
         <v>4</v>
+      </c>
+      <c r="D193" t="s">
+        <v>369</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="194" ht="15" spans="1:9">
       <c s="1" r="A194" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B194" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="C194" t="s">
         <v>4</v>
+      </c>
+      <c r="D194" t="s">
+        <v>370</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="195" ht="15" spans="1:9">
       <c s="1" r="A195" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="B195" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="C195" t="s">
         <v>4</v>
+      </c>
+      <c r="D195" t="s">
+        <v>371</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="196" ht="15" spans="1:9">
       <c s="1" r="A196" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="B196" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="C196" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D196" t="s">
+        <v>372</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="197" ht="15" spans="1:9">
       <c s="1" r="A197" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="B197" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="C197" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D197" t="s">
+        <v>373</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="198" ht="15" spans="1:9">
       <c s="1" r="A198" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="B198" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="C198" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D198" t="s">
+        <v>374</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="199" ht="15" spans="1:9">
       <c s="1" r="A199" t="s">
+        <v>19</v>
+      </c>
+      <c s="0" r="B199" t="s">
         <v>14</v>
       </c>
-      <c s="0" r="B199" t="s">
-        <v>11</v>
-      </c>
       <c s="0" r="C199" t="s">
         <v>4</v>
+      </c>
+      <c r="D199" t="s">
+        <v>375</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="200" ht="15" spans="1:9">
       <c s="1" r="A200" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="B200" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="C200" t="s">
         <v>4</v>
+      </c>
+      <c r="D200" t="s">
+        <v>376</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="201" ht="15" spans="1:9">
       <c s="1" r="A201" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="B201" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="C201" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D201" t="s">
-        <v>210</v>
+        <v>377</v>
       </c>
       <c s="0" r="E201" t="s">
-        <v>211</v>
+        <v>378</v>
       </c>
       <c s="0" r="F201" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c s="0" r="G201" t="s">
-        <v>213</v>
+        <v>380</v>
       </c>
       <c s="0" r="H201" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c s="0" r="I201" t="s">
-        <v>215</v>
+        <v>382</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="202" ht="15" spans="1:9">
       <c s="1" r="A202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="B202" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="C202" t="s">
         <v>4</v>
+      </c>
+      <c r="D202" t="s">
+        <v>383</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="203" ht="15" spans="1:9">
       <c s="1" r="A203" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="B203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="C203" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D203" t="s">
+        <v>384</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="204" ht="15" spans="1:9">
       <c s="1" r="A204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="B204" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="C204" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>385</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="205" ht="15" spans="1:9">
       <c s="1" r="A205" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="B205" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C205" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D205" t="s">
+        <v>386</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="206" ht="15" spans="1:9">
       <c s="1" r="A206" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="B206" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="C206" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D206" t="s">
+        <v>387</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="207" ht="15" spans="1:9">
       <c s="1" r="A207" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="B207" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="C207" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D207" t="s">
+        <v>388</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="208" ht="15" spans="1:9">
       <c s="1" r="A208" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="B208" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="C208" t="s">
         <v>4</v>
+      </c>
+      <c r="D208" t="s">
+        <v>389</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="209" ht="15" spans="1:9">
       <c s="1" r="A209" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="B209" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="C209" t="s">
         <v>4</v>
+      </c>
+      <c r="D209" t="s">
+        <v>390</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="210" ht="15" spans="1:9">
       <c s="1" r="A210" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B210" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="C210" t="s">
         <v>4</v>
+      </c>
+      <c r="D210" t="s">
+        <v>391</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="211" ht="15" spans="1:9">
       <c s="1" r="A211" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="B211" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="C211" t="s">
         <v>4</v>
+      </c>
+      <c r="D211" t="s">
+        <v>392</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="212" ht="15" spans="1:9">
       <c s="1" r="A212" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="B212" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="C212" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D212" t="s">
-        <v>216</v>
+        <v>393</v>
       </c>
       <c s="0" r="E212" t="s">
-        <v>217</v>
+        <v>394</v>
       </c>
       <c s="0" r="F212" t="s">
-        <v>190</v>
+        <v>337</v>
       </c>
       <c s="0" r="G212" t="s">
-        <v>218</v>
+        <v>395</v>
       </c>
       <c s="0" r="H212" t="s">
-        <v>219</v>
+        <v>396</v>
       </c>
       <c s="0" r="I212" t="s">
-        <v>220</v>
+        <v>397</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="213" ht="15" spans="1:9">
       <c s="1" r="A213" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="B213" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="C213" t="s">
         <v>4</v>
+      </c>
+      <c r="D213" t="s">
+        <v>398</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="214" ht="15" spans="1:9">
       <c s="1" r="A214" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="C214" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D214" t="s">
+        <v>399</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="215" ht="15" spans="1:9">
       <c s="1" r="A215" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="B215" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="C215" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D215" t="s">
-        <v>221</v>
+        <v>400</v>
       </c>
       <c s="0" r="E215" t="s">
-        <v>222</v>
+        <v>401</v>
       </c>
       <c s="0" r="F215" t="s">
-        <v>223</v>
+        <v>402</v>
       </c>
       <c s="0" r="G215" t="s">
-        <v>224</v>
+        <v>403</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="216" ht="15" spans="1:9">
@@ -4355,391 +5849,445 @@
         <v>2</v>
       </c>
       <c s="0" r="B216" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="C216" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D216" t="s">
-        <v>225</v>
+        <v>404</v>
       </c>
       <c s="0" r="E216" t="s">
-        <v>226</v>
+        <v>405</v>
       </c>
       <c s="0" r="F216" t="s">
-        <v>227</v>
+        <v>406</v>
       </c>
       <c s="0" r="G216" t="s">
-        <v>228</v>
+        <v>407</v>
       </c>
       <c s="0" r="H216" t="s">
-        <v>229</v>
+        <v>408</v>
       </c>
       <c s="0" r="I216" t="s">
-        <v>230</v>
+        <v>409</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="217" ht="15" spans="1:9">
       <c s="1" r="A217" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="B217" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C217" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D217" t="s">
-        <v>231</v>
+        <v>410</v>
       </c>
       <c s="0" r="E217" t="s">
-        <v>232</v>
+        <v>411</v>
       </c>
       <c s="0" r="F217" t="s">
-        <v>233</v>
+        <v>412</v>
       </c>
       <c s="0" r="G217" t="s">
-        <v>234</v>
+        <v>413</v>
       </c>
       <c s="0" r="H217" t="s">
-        <v>235</v>
+        <v>414</v>
       </c>
       <c s="0" r="I217" t="s">
-        <v>236</v>
+        <v>415</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="218" ht="15" spans="1:9">
       <c s="1" r="A218" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="B218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="C218" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D218" t="s">
-        <v>237</v>
+        <v>416</v>
       </c>
       <c s="0" r="E218" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c s="0" r="F218" t="s">
-        <v>238</v>
+        <v>417</v>
       </c>
       <c s="0" r="G218" t="s">
-        <v>239</v>
+        <v>418</v>
       </c>
       <c s="0" r="H218" t="s">
-        <v>240</v>
+        <v>419</v>
       </c>
       <c s="0" r="I218" t="s">
-        <v>241</v>
+        <v>420</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="219" ht="15" spans="1:9">
       <c s="1" r="A219" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="B219" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="C219" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D219" t="s">
-        <v>242</v>
+        <v>421</v>
       </c>
       <c s="0" r="E219" t="s">
-        <v>243</v>
+        <v>422</v>
       </c>
       <c s="0" r="F219" t="s">
-        <v>244</v>
+        <v>423</v>
       </c>
       <c s="0" r="G219" t="s">
-        <v>245</v>
+        <v>424</v>
       </c>
       <c s="0" r="H219" t="s">
-        <v>246</v>
+        <v>425</v>
       </c>
       <c s="0" r="I219" t="s">
-        <v>247</v>
+        <v>426</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="220" ht="15" spans="1:9">
       <c s="1" r="A220" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="B220" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="C220" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D220" t="s">
+        <v>427</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="221" ht="15" spans="1:9">
       <c s="1" r="A221" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="B221" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="C221" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D221" t="s">
+        <v>428</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="222" ht="15" spans="1:9">
       <c s="1" r="A222" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="B222" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="C222" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D222" t="s">
+        <v>429</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="223" ht="15" spans="1:9">
       <c s="1" r="A223" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="B223" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="C223" t="s">
         <v>4</v>
+      </c>
+      <c r="D223" t="s">
+        <v>430</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="224" ht="15" spans="1:9">
       <c s="1" r="A224" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="B224" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="C224" t="s">
         <v>4</v>
+      </c>
+      <c r="D224" t="s">
+        <v>431</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="225" ht="15" spans="1:9">
       <c s="1" r="A225" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="B225" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="C225" t="s">
         <v>4</v>
+      </c>
+      <c r="D225" t="s">
+        <v>432</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="226" ht="15" spans="1:9">
       <c s="1" r="A226" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="B226" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="C226" t="s">
         <v>4</v>
+      </c>
+      <c r="D226" t="s">
+        <v>433</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="227" ht="15" spans="1:9">
       <c s="1" r="A227" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="B227" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="C227" t="s">
         <v>4</v>
+      </c>
+      <c r="D227" t="s">
+        <v>434</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="228" ht="15" spans="1:9">
       <c s="1" r="A228" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="B228" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="C228" t="s">
         <v>4</v>
+      </c>
+      <c r="D228" t="s">
+        <v>435</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="229" ht="15" spans="1:9">
       <c s="1" r="A229" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="B229" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="C229" t="s">
         <v>4</v>
+      </c>
+      <c r="D229" t="s">
+        <v>436</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="230" ht="15" spans="1:9">
       <c s="1" r="A230" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="B230" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="C230" t="s">
         <v>4</v>
+      </c>
+      <c r="D230" t="s">
+        <v>437</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="231" ht="15" spans="1:9">
       <c s="1" r="A231" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="B231" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="C231" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D231" t="s">
-        <v>179</v>
+        <v>438</v>
       </c>
       <c s="0" r="E231" t="s">
-        <v>180</v>
+        <v>313</v>
       </c>
       <c s="0" r="F231" t="s">
-        <v>181</v>
+        <v>314</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="232" ht="15" spans="1:9">
       <c s="1" r="A232" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="B232" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="C232" t="s">
         <v>4</v>
+      </c>
+      <c r="D232" t="s">
+        <v>439</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="233" ht="15" spans="1:9">
       <c s="1" r="A233" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="B233" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="C233" t="s">
         <v>4</v>
+      </c>
+      <c r="D233" t="s">
+        <v>440</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="234" ht="15" spans="1:9">
       <c s="1" r="A234" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="B234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="C234" t="s">
         <v>4</v>
+      </c>
+      <c r="D234" t="s">
+        <v>441</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="235" ht="15" spans="1:9">
       <c s="1" r="A235" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="B235" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="C235" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D235" t="s">
+        <v>442</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="236" ht="15" spans="1:9">
       <c s="1" r="A236" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="B236" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="C236" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D236" t="s">
-        <v>248</v>
+        <v>443</v>
       </c>
       <c s="0" r="E236" t="s">
-        <v>249</v>
+        <v>444</v>
       </c>
       <c s="0" r="F236" t="s">
-        <v>250</v>
+        <v>445</v>
       </c>
       <c s="0" r="G236" t="s">
-        <v>251</v>
+        <v>446</v>
       </c>
       <c s="0" r="H236" t="s">
-        <v>252</v>
+        <v>447</v>
       </c>
       <c s="0" r="I236" t="s">
-        <v>253</v>
+        <v>448</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="237" ht="15" spans="1:9">
       <c s="1" r="A237" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="B237" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="C237" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D237" t="s">
+        <v>449</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="238" ht="15" spans="1:9">
       <c s="1" r="A238" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="B238" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="C238" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D238" t="s">
-        <v>254</v>
+        <v>450</v>
       </c>
       <c s="0" r="E238" t="s">
-        <v>255</v>
+        <v>451</v>
       </c>
       <c s="0" r="F238" t="s">
-        <v>256</v>
+        <v>452</v>
       </c>
       <c s="0" r="G238" t="s">
-        <v>257</v>
+        <v>453</v>
       </c>
       <c s="0" r="H238" t="s">
-        <v>258</v>
+        <v>454</v>
       </c>
       <c s="0" r="I238" t="s">
-        <v>259</v>
+        <v>455</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="239" ht="15" spans="1:9">
       <c s="1" r="A239" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="B239" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="C239" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D239" t="s">
+        <v>456</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="240" ht="15" spans="1:9">
       <c s="1" r="A240" t="s">
+        <v>25</v>
+      </c>
+      <c s="0" r="B240" t="s">
         <v>17</v>
       </c>
-      <c s="0" r="B240" t="s">
-        <v>13</v>
-      </c>
       <c s="0" r="C240" t="s">
         <v>4</v>
+      </c>
+      <c r="D240" t="s">
+        <v>457</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="241" ht="15" spans="1:9">
@@ -4747,153 +6295,195 @@
         <v>2</v>
       </c>
       <c s="0" r="B241" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="C241" t="s">
         <v>4</v>
+      </c>
+      <c r="D241" t="s">
+        <v>458</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="242" ht="15" spans="1:9">
       <c s="1" r="A242" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="B242" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="C242" t="s">
         <v>4</v>
+      </c>
+      <c r="D242" t="s">
+        <v>459</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="243" ht="15" spans="1:9">
       <c s="1" r="A243" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="B243" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="C243" t="s">
         <v>4</v>
+      </c>
+      <c r="D243" t="s">
+        <v>460</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="244" ht="15" spans="1:9">
       <c s="1" r="A244" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="B244" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="C244" t="s">
         <v>4</v>
+      </c>
+      <c r="D244" t="s">
+        <v>461</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="245" ht="15" spans="1:9">
       <c s="1" r="A245" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="B245" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="C245" t="s">
         <v>4</v>
+      </c>
+      <c r="D245" t="s">
+        <v>462</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="246" ht="15" spans="1:9">
       <c s="1" r="A246" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="B246" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="C246" t="s">
         <v>4</v>
+      </c>
+      <c r="D246" t="s">
+        <v>463</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="247" ht="15" spans="1:9">
       <c s="1" r="A247" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B247" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="C247" t="s">
         <v>4</v>
+      </c>
+      <c r="D247" t="s">
+        <v>464</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="248" ht="15" spans="1:9">
       <c s="1" r="A248" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="B248" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="C248" t="s">
         <v>4</v>
+      </c>
+      <c r="D248" t="s">
+        <v>465</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="249" ht="15" spans="1:9">
       <c s="1" r="A249" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="B249" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="C249" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D249" t="s">
+        <v>466</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="250" ht="15" spans="1:9">
       <c s="1" r="A250" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="B250" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="C250" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D250" t="s">
+        <v>467</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="251" ht="15" spans="1:9">
       <c s="1" r="A251" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="B251" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="C251" t="s">
         <v>4</v>
+      </c>
+      <c r="D251" t="s">
+        <v>468</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="252" ht="15" spans="1:9">
       <c s="1" r="A252" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="B252" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="C252" t="s">
         <v>4</v>
+      </c>
+      <c r="D252" t="s">
+        <v>469</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="253" ht="15" spans="1:9">
       <c s="1" r="A253" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="B253" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="C253" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D253" t="s">
+        <v>470</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="254" ht="15" spans="1:9">
       <c s="1" r="A254" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="B254" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="C254" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D254" t="s">
+        <v>471</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="255" ht="15" spans="1:9">
@@ -4901,255 +6491,309 @@
         <v>2</v>
       </c>
       <c s="0" r="B255" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="C255" t="s">
         <v>4</v>
+      </c>
+      <c r="D255" t="s">
+        <v>472</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="256" ht="15" spans="1:9">
       <c s="1" r="A256" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="B256" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="C256" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D256" t="s">
+        <v>473</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="257" ht="15" spans="1:9">
       <c s="1" r="A257" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="B257" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="C257" t="s">
         <v>4</v>
+      </c>
+      <c r="D257" t="s">
+        <v>474</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="258" ht="15" spans="1:9">
       <c s="1" r="A258" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="B258" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C258" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D258" t="s">
+        <v>475</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="259" ht="15" spans="1:9">
       <c s="1" r="A259" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="B259" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="C259" t="s">
         <v>4</v>
+      </c>
+      <c r="D259" t="s">
+        <v>476</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="260" ht="15" spans="1:9">
       <c s="1" r="A260" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="B260" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="C260" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D260" t="s">
+        <v>477</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="261" ht="15" spans="1:9">
       <c s="1" r="A261" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="B261" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="C261" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D261" t="s">
+        <v>478</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="262" ht="15" spans="1:9">
       <c s="1" r="A262" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="B262" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="C262" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D262" t="s">
+        <v>479</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="263" ht="15" spans="1:9">
       <c s="1" r="A263" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="B263" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="C263" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D263" t="s">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c s="0" r="E263" t="s">
-        <v>261</v>
+        <v>481</v>
       </c>
       <c s="0" r="F263" t="s">
-        <v>262</v>
+        <v>482</v>
       </c>
       <c s="0" r="G263" t="s">
-        <v>263</v>
+        <v>483</v>
       </c>
       <c s="0" r="H263" t="s">
-        <v>264</v>
+        <v>484</v>
       </c>
       <c s="0" r="I263" t="s">
-        <v>265</v>
+        <v>485</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="264" ht="15" spans="1:9">
       <c s="1" r="A264" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="B264" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C264" t="s">
         <v>4</v>
+      </c>
+      <c r="D264" t="s">
+        <v>486</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="265" ht="15" spans="1:9">
       <c s="1" r="A265" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="B265" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="C265" t="s">
         <v>4</v>
+      </c>
+      <c r="D265" t="s">
+        <v>487</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="266" ht="15" spans="1:9">
       <c s="1" r="A266" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="B266" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="C266" t="s">
         <v>4</v>
+      </c>
+      <c r="D266" t="s">
+        <v>488</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="267" ht="15" spans="1:9">
       <c s="1" r="A267" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="B267" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="C267" t="s">
         <v>4</v>
+      </c>
+      <c r="D267" t="s">
+        <v>489</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="268" ht="15" spans="1:9">
       <c s="1" r="A268" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="B268" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="C268" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D268" t="s">
+        <v>490</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="269" ht="15" spans="1:9">
       <c s="1" r="A269" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="B269" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="C269" t="s">
         <v>4</v>
+      </c>
+      <c r="D269" t="s">
+        <v>491</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="270" ht="15" spans="1:9">
       <c s="1" r="A270" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="B270" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C270" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D270" t="s">
+        <v>492</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="271" ht="15" spans="1:9">
       <c s="1" r="A271" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="B271" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="C271" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D271" t="s">
+        <v>493</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="272" ht="15" spans="1:9">
       <c s="1" r="A272" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="B272" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="C272" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D272" t="s">
-        <v>182</v>
+        <v>494</v>
       </c>
       <c s="0" r="E272" t="s">
-        <v>183</v>
+        <v>329</v>
       </c>
       <c s="0" r="F272" t="s">
-        <v>184</v>
+        <v>330</v>
       </c>
       <c s="0" r="G272" t="s">
-        <v>185</v>
+        <v>331</v>
       </c>
       <c s="0" r="H272" t="s">
-        <v>186</v>
+        <v>332</v>
       </c>
       <c s="0" r="I272" t="s">
-        <v>187</v>
+        <v>333</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="273" ht="15" spans="1:9">
       <c s="1" r="A273" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="B273" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="C273" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D273" t="s">
+        <v>495</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="274" ht="15" spans="1:9">
       <c s="1" r="A274" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="B274" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="C274" t="s">
         <v>4</v>
+      </c>
+      <c r="D274" t="s">
+        <v>496</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="275" ht="15" spans="1:9">
@@ -5157,141 +6801,156 @@
         <v>3</v>
       </c>
       <c s="0" r="B275" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="C275" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D275" t="s">
+        <v>497</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="276" ht="15" spans="1:9">
       <c s="1" r="A276" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="B276" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="C276" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D276" t="s">
+        <v>498</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="277" ht="15" spans="1:9">
       <c s="1" r="A277" t="s">
+        <v>13</v>
+      </c>
+      <c s="0" r="B277" t="s">
         <v>10</v>
       </c>
-      <c s="0" r="B277" t="s">
-        <v>8</v>
-      </c>
       <c s="0" r="C277" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D277" t="s">
+        <v>499</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="278" ht="15" spans="1:9">
       <c s="1" r="A278" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="B278" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="C278" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D278" t="s">
-        <v>266</v>
+        <v>500</v>
       </c>
       <c s="0" r="E278" t="s">
-        <v>267</v>
+        <v>501</v>
       </c>
       <c s="0" r="F278" t="s">
-        <v>268</v>
+        <v>502</v>
       </c>
       <c s="0" r="G278" t="s">
-        <v>269</v>
+        <v>503</v>
       </c>
       <c s="0" r="H278" t="s">
-        <v>270</v>
+        <v>504</v>
       </c>
       <c s="0" r="I278" t="s">
-        <v>271</v>
+        <v>505</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="279" ht="15" spans="1:9">
       <c s="1" r="A279" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="B279" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="C279" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D279" t="s">
+        <v>506</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="280" ht="15" spans="1:9">
       <c s="1" r="A280" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="B280" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="C280" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D280" t="s">
-        <v>272</v>
+        <v>507</v>
       </c>
       <c s="0" r="E280" t="s">
-        <v>273</v>
+        <v>508</v>
       </c>
       <c s="0" r="F280" t="s">
-        <v>274</v>
+        <v>509</v>
       </c>
       <c s="0" r="G280" t="s">
-        <v>275</v>
+        <v>510</v>
       </c>
       <c s="0" r="H280" t="s">
-        <v>276</v>
+        <v>511</v>
       </c>
       <c s="0" r="I280" t="s">
-        <v>277</v>
+        <v>512</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="281" ht="15" spans="1:9">
       <c s="1" r="A281" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="B281" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C281" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D281" t="s">
+        <v>513</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="282" ht="15" spans="1:9">
       <c s="1" r="A282" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="B282" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="C282" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D282" t="s">
-        <v>278</v>
+        <v>514</v>
       </c>
       <c s="0" r="E282" t="s">
-        <v>279</v>
+        <v>515</v>
       </c>
       <c s="0" r="F282" t="s">
-        <v>280</v>
+        <v>516</v>
       </c>
       <c s="0" r="G282" t="s">
-        <v>281</v>
+        <v>517</v>
       </c>
       <c s="0" r="H282" t="s">
-        <v>282</v>
+        <v>518</v>
       </c>
       <c s="0" r="I282" t="s">
-        <v>283</v>
+        <v>519</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="283" ht="15" spans="1:9">
@@ -5299,306 +6958,366 @@
         <v>3</v>
       </c>
       <c s="0" r="B283" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="C283" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D283" t="s">
+        <v>520</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="284" ht="15" spans="1:9">
       <c s="1" r="A284" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="B284" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="C284" t="s">
         <v>4</v>
+      </c>
+      <c r="D284" t="s">
+        <v>521</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="285" ht="15" spans="1:9">
       <c s="1" r="A285" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="B285" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="C285" t="s">
         <v>4</v>
+      </c>
+      <c r="D285" t="s">
+        <v>522</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="286" ht="15" spans="1:9">
       <c s="1" r="A286" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="B286" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="C286" t="s">
         <v>4</v>
+      </c>
+      <c r="D286" t="s">
+        <v>523</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="287" ht="15" spans="1:9">
       <c s="1" r="A287" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="B287" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="C287" t="s">
         <v>4</v>
+      </c>
+      <c r="D287" t="s">
+        <v>524</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="288" ht="15" spans="1:9">
       <c s="1" r="A288" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="B288" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C288" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D288" t="s">
+        <v>525</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="289" ht="15" spans="1:9">
       <c s="1" r="A289" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="B289" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="C289" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D289" t="s">
-        <v>204</v>
+        <v>526</v>
       </c>
       <c s="0" r="E289" t="s">
-        <v>205</v>
+        <v>364</v>
       </c>
       <c s="0" r="F289" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
       <c s="0" r="G289" t="s">
-        <v>207</v>
+        <v>366</v>
       </c>
       <c s="0" r="H289" t="s">
-        <v>208</v>
+        <v>367</v>
       </c>
       <c s="0" r="I289" t="s">
-        <v>209</v>
+        <v>368</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="290" ht="15" spans="1:9">
       <c s="1" r="A290" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="B290" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="C290" t="s">
         <v>4</v>
+      </c>
+      <c r="D290" t="s">
+        <v>527</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="291" ht="15" spans="1:9">
       <c s="1" r="A291" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="B291" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="C291" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D291" t="s">
+        <v>528</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="292" ht="15" spans="1:9">
       <c s="1" r="A292" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="B292" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="C292" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D292" t="s">
+        <v>529</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="293" ht="15" spans="1:9">
       <c s="1" r="A293" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="B293" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="C293" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D293" t="s">
+        <v>530</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="294" ht="15" spans="1:9">
       <c s="1" r="A294" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="B294" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="C294" t="s">
         <v>4</v>
+      </c>
+      <c r="D294" t="s">
+        <v>531</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="295" ht="15" spans="1:9">
       <c s="1" r="A295" t="s">
+        <v>9</v>
+      </c>
+      <c s="0" r="B295" t="s">
         <v>7</v>
       </c>
-      <c s="0" r="B295" t="s">
-        <v>6</v>
-      </c>
       <c s="0" r="C295" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D295" t="s">
+        <v>532</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="296" ht="15" spans="1:9">
       <c s="1" r="A296" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="B296" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="C296" t="s">
         <v>4</v>
+      </c>
+      <c r="D296" t="s">
+        <v>533</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="297" ht="15" spans="1:9">
       <c s="1" r="A297" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="B297" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="C297" t="s">
         <v>4</v>
+      </c>
+      <c r="D297" t="s">
+        <v>534</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="298" ht="15" spans="1:9">
       <c s="1" r="A298" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="B298" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="C298" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D298" t="s">
+        <v>535</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="299" ht="15" spans="1:9">
       <c s="1" r="A299" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="B299" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="C299" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D299" t="s">
-        <v>284</v>
+        <v>536</v>
       </c>
       <c s="0" r="E299" t="s">
-        <v>285</v>
+        <v>537</v>
       </c>
       <c s="0" r="F299" t="s">
-        <v>286</v>
+        <v>538</v>
       </c>
       <c s="0" r="G299" t="s">
-        <v>287</v>
+        <v>539</v>
       </c>
       <c s="0" r="H299" t="s">
-        <v>288</v>
+        <v>540</v>
       </c>
       <c s="0" r="I299" t="s">
-        <v>289</v>
+        <v>541</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="300" ht="15" spans="1:9">
       <c s="1" r="A300" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="B300" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="C300" t="s">
         <v>4</v>
+      </c>
+      <c r="D300" t="s">
+        <v>542</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="301" ht="15" spans="1:9">
       <c s="1" r="A301" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="B301" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C301" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D301" t="s">
+        <v>543</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="302" ht="15" spans="1:9">
       <c s="1" r="A302" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="B302" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="C302" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D302" t="s">
+        <v>544</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="303" ht="15" spans="1:9">
       <c s="1" r="A303" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="B303" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="C303" t="s">
         <v>4</v>
+      </c>
+      <c r="D303" t="s">
+        <v>545</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="304" ht="15" spans="1:9">
       <c s="1" r="A304" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="B304" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="C304" t="s">
         <v>4</v>
+      </c>
+      <c r="D304" t="s">
+        <v>546</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="305" ht="15" spans="1:9">
       <c s="1" r="A305" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B305" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="C305" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D305" t="s">
-        <v>120</v>
+        <v>547</v>
       </c>
       <c s="0" r="E305" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c s="0" r="F305" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c s="0" r="G305" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c s="0" r="H305" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c s="0" r="I305" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="306" ht="15" spans="1:9">
@@ -5606,55 +7325,61 @@
         <v>2</v>
       </c>
       <c s="0" r="B306" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C306" t="s">
         <v>4</v>
+      </c>
+      <c r="D306" t="s">
+        <v>548</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="307" ht="15" spans="1:9">
       <c s="1" r="A307" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B307" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="C307" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D307" t="s">
-        <v>254</v>
+        <v>549</v>
       </c>
       <c s="0" r="E307" t="s">
-        <v>255</v>
+        <v>451</v>
       </c>
       <c s="0" r="F307" t="s">
-        <v>256</v>
+        <v>452</v>
       </c>
       <c s="0" r="G307" t="s">
-        <v>257</v>
+        <v>453</v>
       </c>
       <c s="0" r="H307" t="s">
-        <v>258</v>
+        <v>454</v>
       </c>
       <c s="0" r="I307" t="s">
-        <v>259</v>
+        <v>455</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="308" ht="15" spans="1:9">
       <c s="1" r="A308" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="B308" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="C308" t="s">
         <v>4</v>
+      </c>
+      <c r="D308" t="s">
+        <v>550</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="309" ht="15" spans="1:9">
       <c s="1" r="A309" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="B309" t="s">
         <v>3</v>
@@ -5662,133 +7387,163 @@
       <c s="0" r="C309" t="s">
         <v>4</v>
       </c>
+      <c r="D309" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row customHeight="1" s="2" r="310" ht="15" spans="1:9">
       <c s="1" r="A310" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="B310" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="C310" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D310" t="s">
+        <v>552</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="311" ht="15" spans="1:9">
       <c s="1" r="A311" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c s="0" r="B311" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="C311" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D311" t="s">
+        <v>553</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="312" ht="15" spans="1:9">
       <c s="1" r="A312" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="B312" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="C312" t="s">
         <v>4</v>
+      </c>
+      <c r="D312" t="s">
+        <v>554</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="313" ht="15" spans="1:9">
       <c s="1" r="A313" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="B313" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="C313" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D313" t="s">
+        <v>555</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="314" ht="15" spans="1:9">
       <c s="1" r="A314" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="B314" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="C314" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D314" t="s">
+        <v>556</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="315" ht="15" spans="1:9">
       <c s="1" r="A315" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="B315" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="C315" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D315" t="s">
+        <v>557</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="316" ht="15" spans="1:9">
       <c s="1" r="A316" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B316" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="C316" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D316" t="s">
-        <v>76</v>
+        <v>558</v>
       </c>
       <c s="0" r="E316" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c s="0" r="F316" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c s="0" r="G316" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c s="0" r="H316" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c s="0" r="I316" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="317" ht="15" spans="1:9">
       <c s="1" r="A317" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="B317" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="C317" t="s">
         <v>4</v>
+      </c>
+      <c r="D317" t="s">
+        <v>559</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="318" ht="15" spans="1:9">
       <c s="1" r="A318" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="B318" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="C318" t="s">
         <v>4</v>
+      </c>
+      <c r="D318" t="s">
+        <v>560</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="319" ht="15" spans="1:9">
       <c s="1" r="A319" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="B319" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="C319" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D319" t="s">
+        <v>561</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="320" ht="15" spans="1:9">
@@ -5796,272 +7551,320 @@
         <v>2</v>
       </c>
       <c s="0" r="B320" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="C320" t="s">
         <v>4</v>
+      </c>
+      <c r="D320" t="s">
+        <v>562</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="321" ht="15" spans="1:9">
       <c s="1" r="A321" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="B321" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="C321" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D321" t="s">
-        <v>290</v>
+        <v>563</v>
       </c>
       <c s="0" r="E321" t="s">
-        <v>291</v>
+        <v>564</v>
       </c>
       <c s="0" r="F321" t="s">
-        <v>292</v>
+        <v>565</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="322" ht="15" spans="1:9">
       <c s="1" r="A322" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="B322" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="C322" t="s">
         <v>4</v>
+      </c>
+      <c r="D322" t="s">
+        <v>566</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="323" ht="15" spans="1:9">
       <c s="1" r="A323" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="B323" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C323" t="s">
         <v>4</v>
+      </c>
+      <c r="D323" t="s">
+        <v>567</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="324" ht="15" spans="1:9">
       <c s="1" r="A324" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="B324" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C324" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D324" t="s">
+        <v>568</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="325" ht="15" spans="1:9">
       <c s="1" r="A325" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="B325" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="C325" t="s">
         <v>4</v>
+      </c>
+      <c r="D325" t="s">
+        <v>569</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="326" ht="15" spans="1:9">
       <c s="1" r="A326" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="B326" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="C326" t="s">
         <v>4</v>
+      </c>
+      <c r="D326" t="s">
+        <v>570</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="327" ht="15" spans="1:9">
       <c s="1" r="A327" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c s="0" r="B327" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c s="0" r="C327" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D327" t="s">
-        <v>293</v>
+        <v>571</v>
       </c>
       <c s="0" r="E327" t="s">
-        <v>294</v>
+        <v>572</v>
       </c>
       <c s="0" r="F327" t="s">
-        <v>295</v>
+        <v>573</v>
       </c>
       <c s="0" r="G327" t="s">
-        <v>296</v>
+        <v>574</v>
       </c>
       <c s="0" r="H327" t="s">
-        <v>297</v>
+        <v>575</v>
       </c>
       <c s="0" r="I327" t="s">
-        <v>298</v>
+        <v>576</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="328" ht="15" spans="1:9">
       <c s="1" r="A328" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="B328" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="C328" t="s">
         <v>4</v>
+      </c>
+      <c r="D328" t="s">
+        <v>577</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="329" ht="15" spans="1:9">
       <c s="1" r="A329" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="B329" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="C329" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D329" t="s">
-        <v>299</v>
+        <v>578</v>
       </c>
       <c s="0" r="E329" t="s">
-        <v>300</v>
+        <v>579</v>
       </c>
       <c s="0" r="F329" t="s">
-        <v>301</v>
+        <v>580</v>
       </c>
       <c s="0" r="G329" t="s">
-        <v>302</v>
+        <v>581</v>
       </c>
       <c s="0" r="H329" t="s">
-        <v>303</v>
+        <v>582</v>
       </c>
       <c s="0" r="I329" t="s">
-        <v>304</v>
+        <v>583</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="330" ht="15" spans="1:9">
       <c s="1" r="A330" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="B330" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="C330" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D330" t="s">
+        <v>584</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="331" ht="15" spans="1:9">
       <c s="1" r="A331" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="B331" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="C331" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D331" t="s">
+        <v>585</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="332" ht="15" spans="1:9">
       <c s="1" r="A332" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="B332" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="C332" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D332" t="s">
+        <v>586</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="333" ht="15" spans="1:9">
       <c s="1" r="A333" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="B333" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="C333" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D333" t="s">
+        <v>587</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="334" ht="15" spans="1:9">
       <c s="1" r="A334" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="B334" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="C334" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D334" t="s">
+        <v>588</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="335" ht="15" spans="1:9">
       <c s="1" r="A335" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="B335" t="s">
         <v>2</v>
       </c>
       <c s="0" r="C335" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D335" t="s">
+        <v>589</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="336" ht="15" spans="1:9">
       <c s="1" r="A336" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="B336" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="C336" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D336" t="s">
-        <v>305</v>
+        <v>590</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="337" ht="15" spans="1:9">
       <c s="1" r="A337" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="B337" t="s">
         <v>2</v>
       </c>
       <c s="0" r="C337" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D337" t="s">
+        <v>591</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="338" ht="15" spans="1:9">
       <c s="1" r="A338" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="B338" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="C338" t="s">
         <v>4</v>
+      </c>
+      <c r="D338" t="s">
+        <v>592</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="339" ht="15" spans="1:9">
       <c s="1" r="A339" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="B339" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="C339" t="s">
         <v>4</v>
+      </c>
+      <c r="D339" t="s">
+        <v>593</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="340" ht="15" spans="1:9">
       <c s="1" r="A340" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="B340" t="s">
         <v>2</v>
@@ -6069,16 +7872,22 @@
       <c s="0" r="C340" t="s">
         <v>4</v>
       </c>
+      <c r="D340" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row customHeight="1" s="2" r="341" ht="15" spans="1:9">
       <c s="1" r="A341" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="B341" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="C341" t="s">
         <v>4</v>
+      </c>
+      <c r="D341" t="s">
+        <v>595</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="342" ht="15" spans="1:9">
@@ -6086,10 +7895,13 @@
         <v>2</v>
       </c>
       <c s="0" r="B342" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="C342" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D342" t="s">
+        <v>596</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="343" ht="15" spans="1:9">
@@ -6097,32 +7909,41 @@
         <v>2</v>
       </c>
       <c s="0" r="B343" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="C343" t="s">
         <v>4</v>
+      </c>
+      <c r="D343" t="s">
+        <v>597</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="344" ht="15" spans="1:9">
       <c s="1" r="A344" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="B344" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="C344" t="s">
         <v>4</v>
+      </c>
+      <c r="D344" t="s">
+        <v>598</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="345" ht="15" spans="1:9">
       <c s="1" r="A345" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="B345" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="C345" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D345" t="s">
+        <v>599</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="346" ht="15" spans="1:9">
@@ -6130,152 +7951,170 @@
         <v>2</v>
       </c>
       <c s="0" r="B346" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="C346" t="s">
         <v>4</v>
+      </c>
+      <c r="D346" t="s">
+        <v>600</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="347" ht="15" spans="1:9">
       <c s="1" r="A347" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="B347" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="C347" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D347" t="s">
-        <v>306</v>
+        <v>601</v>
       </c>
       <c s="0" r="E347" t="s">
-        <v>307</v>
+        <v>602</v>
       </c>
       <c s="0" r="F347" t="s">
-        <v>308</v>
+        <v>603</v>
       </c>
       <c s="0" r="G347" t="s">
-        <v>309</v>
+        <v>604</v>
       </c>
       <c s="0" r="H347" t="s">
-        <v>310</v>
+        <v>605</v>
       </c>
       <c s="0" r="I347" t="s">
-        <v>311</v>
+        <v>606</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="348" ht="15" spans="1:9">
       <c s="1" r="A348" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c s="0" r="B348" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="C348" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D348" t="s">
-        <v>312</v>
+        <v>607</v>
       </c>
       <c s="0" r="E348" t="s">
-        <v>313</v>
+        <v>608</v>
       </c>
       <c s="0" r="F348" t="s">
-        <v>314</v>
+        <v>609</v>
       </c>
       <c s="0" r="G348" t="s">
-        <v>315</v>
+        <v>610</v>
       </c>
       <c s="0" r="H348" t="s">
-        <v>316</v>
+        <v>611</v>
       </c>
       <c s="0" r="I348" t="s">
-        <v>317</v>
+        <v>612</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="349" ht="15" spans="1:9">
       <c s="1" r="A349" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="B349" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="C349" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D349" t="s">
+        <v>613</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="350" ht="15" spans="1:9">
       <c s="1" r="A350" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="B350" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="C350" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D350" t="s">
-        <v>318</v>
+        <v>614</v>
       </c>
       <c s="0" r="E350" t="s">
-        <v>319</v>
+        <v>615</v>
       </c>
       <c s="0" r="F350" t="s">
-        <v>320</v>
+        <v>616</v>
       </c>
       <c s="0" r="G350" t="s">
-        <v>321</v>
+        <v>617</v>
       </c>
       <c s="0" r="H350" t="s">
-        <v>322</v>
+        <v>618</v>
       </c>
       <c s="0" r="I350" t="s">
-        <v>323</v>
+        <v>619</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="351" ht="15" spans="1:9">
       <c s="1" r="A351" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="B351" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C351" t="s">
         <v>4</v>
+      </c>
+      <c r="D351" t="s">
+        <v>620</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="352" ht="15" spans="1:9">
       <c s="1" r="A352" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="B352" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c s="0" r="C352" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D352" t="s">
+        <v>621</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="353" ht="15" spans="1:9">
       <c s="1" r="A353" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c s="0" r="B353" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="C353" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D353" t="s">
+        <v>622</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="354" ht="15" spans="1:9">
       <c s="1" r="A354" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="0" r="B354" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="C354" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D354" t="s">
+        <v>623</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="355" ht="15" spans="1:9">
@@ -6283,174 +8122,207 @@
         <v>3</v>
       </c>
       <c s="0" r="B355" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="C355" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D355" t="s">
+        <v>624</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="356" ht="15" spans="1:9">
       <c s="1" r="A356" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="B356" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="0" r="C356" t="s">
         <v>4</v>
+      </c>
+      <c r="D356" t="s">
+        <v>625</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="357" ht="15" spans="1:9">
       <c s="1" r="A357" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="B357" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="C357" t="s">
         <v>4</v>
+      </c>
+      <c r="D357" t="s">
+        <v>626</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="358" ht="15" spans="1:9">
       <c s="1" r="A358" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="B358" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c s="0" r="C358" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D358" t="s">
+        <v>627</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="359" ht="15" spans="1:9">
       <c s="1" r="A359" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c s="0" r="B359" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="C359" t="s">
         <v>4</v>
+      </c>
+      <c r="D359" t="s">
+        <v>628</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="360" ht="15" spans="1:9">
       <c s="1" r="A360" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="0" r="B360" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="0" r="C360" t="s">
         <v>4</v>
+      </c>
+      <c r="D360" t="s">
+        <v>629</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="361" ht="15" spans="1:9">
       <c s="1" r="A361" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="B361" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="C361" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D361" t="s">
+        <v>630</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="362" ht="15" spans="1:9">
       <c s="1" r="A362" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="B362" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="C362" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D362" t="s">
-        <v>290</v>
+        <v>631</v>
       </c>
       <c s="0" r="E362" t="s">
-        <v>291</v>
+        <v>564</v>
       </c>
       <c s="0" r="F362" t="s">
-        <v>292</v>
+        <v>565</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="363" ht="15" spans="1:9">
       <c s="1" r="A363" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c s="0" r="B363" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c s="0" r="C363" t="s">
         <v>4</v>
+      </c>
+      <c r="D363" t="s">
+        <v>632</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="364" ht="15" spans="1:9">
       <c s="1" r="A364" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c s="0" r="B364" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="0" r="C364" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D364" t="s">
+        <v>633</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="365" ht="15" spans="1:9">
       <c s="1" r="A365" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="B365" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="C365" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D365" t="s">
-        <v>198</v>
+        <v>634</v>
       </c>
       <c s="0" r="E365" t="s">
-        <v>199</v>
+        <v>358</v>
       </c>
       <c s="0" r="F365" t="s">
-        <v>200</v>
+        <v>359</v>
       </c>
       <c s="0" r="G365" t="s">
-        <v>201</v>
+        <v>360</v>
       </c>
       <c s="0" r="H365" t="s">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c s="0" r="I365" t="s">
-        <v>203</v>
+        <v>362</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="366" ht="15" spans="1:9">
       <c s="1" r="A366" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="B366" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="C366" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D366" t="s">
+        <v>635</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="367" ht="15" spans="1:9">
       <c s="1" r="A367" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="0" r="B367" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="C367" t="s">
         <v>4</v>
+      </c>
+      <c r="D367" t="s">
+        <v>636</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="368" ht="15" spans="1:9">
       <c s="1" r="A368" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="B368" t="s">
         <v>2</v>
@@ -6458,144 +8330,159 @@
       <c s="0" r="C368" t="s">
         <v>4</v>
       </c>
+      <c r="D368" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row customHeight="1" s="2" r="369" ht="15" spans="1:9">
       <c s="1" r="A369" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="B369" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="C369" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D369" t="s">
-        <v>324</v>
+        <v>638</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="370" ht="15" spans="1:9">
       <c s="1" r="A370" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="B370" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="0" r="C370" t="s">
         <v>4</v>
       </c>
       <c s="0" r="D370" t="s">
-        <v>325</v>
+        <v>639</v>
       </c>
       <c s="0" r="E370" t="s">
-        <v>326</v>
+        <v>640</v>
       </c>
       <c s="0" r="F370" t="s">
-        <v>327</v>
+        <v>641</v>
       </c>
       <c s="0" r="G370" t="s">
-        <v>328</v>
+        <v>642</v>
       </c>
       <c s="0" r="H370" t="s">
-        <v>329</v>
+        <v>643</v>
       </c>
       <c s="0" r="I370" t="s">
-        <v>330</v>
+        <v>644</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="371" ht="15" spans="1:9">
       <c s="1" r="A371" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="0" r="B371" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c s="0" r="C371" t="s">
         <v>4</v>
+      </c>
+      <c r="D371" t="s">
+        <v>645</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="372" ht="15" spans="1:9">
       <c s="1" r="A372" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c s="0" r="B372" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c s="0" r="C372" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D372" t="s">
-        <v>188</v>
+        <v>646</v>
       </c>
       <c s="0" r="E372" t="s">
-        <v>189</v>
+        <v>336</v>
       </c>
       <c s="0" r="F372" t="s">
-        <v>190</v>
+        <v>337</v>
       </c>
       <c s="0" r="G372" t="s">
-        <v>191</v>
+        <v>338</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="373" ht="15" spans="1:9">
       <c s="1" r="A373" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c s="0" r="B373" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c s="0" r="C373" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c s="0" r="D373" t="s">
-        <v>331</v>
+        <v>647</v>
       </c>
       <c s="0" r="E373" t="s">
-        <v>332</v>
+        <v>648</v>
       </c>
       <c s="0" r="F373" t="s">
-        <v>333</v>
+        <v>649</v>
       </c>
       <c s="0" r="G373" t="s">
-        <v>213</v>
+        <v>380</v>
       </c>
       <c s="0" r="H373" t="s">
-        <v>334</v>
+        <v>650</v>
       </c>
       <c s="0" r="I373" t="s">
-        <v>335</v>
+        <v>651</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="374" ht="15" spans="1:9">
       <c s="1" r="A374" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c s="0" r="B374" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c s="0" r="C374" t="s">
         <v>4</v>
+      </c>
+      <c r="D374" t="s">
+        <v>652</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="375" ht="15" spans="1:9">
       <c s="1" r="A375" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c s="0" r="B375" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="0" r="C375" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D375" t="s">
+        <v>653</v>
       </c>
     </row>
     <row customHeight="1" s="2" r="376" ht="15" spans="1:9">
       <c s="1" r="A376" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c s="0" r="B376" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c s="0" r="C376" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D376" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +8506,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" width="8.5748987854251"/>
+    <col customWidth="1" max="1025" min="1" style="2" width="8.5748987854251"/>
   </cols>
   <sheetData/>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
@@ -6642,7 +8529,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" width="8.5748987854251"/>
+    <col customWidth="1" max="1025" min="1" style="2" width="8.5748987854251"/>
   </cols>
   <sheetData/>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>

--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/india_no.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/india_no.xlsx
@@ -33,7 +33,7 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6,8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94</t>
   </si>
   <si>
     <t>arg649666</t>
@@ -42,7 +42,7 @@
     <t>arg124182</t>
   </si>
   <si>
-    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+    <t>64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
   </si>
   <si>
     <t>arg155750</t>
@@ -54,7 +54,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
+    <t>5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0,14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38</t>
   </si>
   <si>
     <t>arg206923</t>
@@ -63,7 +63,7 @@
     <t>arg133725</t>
   </si>
   <si>
-    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+    <t>36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0,13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
   </si>
   <si>
     <t>arg123962</t>
@@ -72,49 +72,49 @@
     <t>arg108959</t>
   </si>
   <si>
-    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+    <t>9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83,16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71</t>
   </si>
   <si>
     <t>arg125382</t>
   </si>
   <si>
-    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
+    <t>5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0,49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56</t>
   </si>
   <si>
     <t>arg118518</t>
   </si>
   <si>
-    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
+    <t>8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94,15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17</t>
   </si>
   <si>
     <t>arg106123</t>
   </si>
   <si>
-    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61,3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67</t>
   </si>
   <si>
     <t>arg126375</t>
   </si>
   <si>
-    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
+    <t>9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83,35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91</t>
   </si>
   <si>
     <t>arg127723</t>
   </si>
   <si>
-    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94,12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
   </si>
   <si>
     <t>arg118415</t>
   </si>
   <si>
-    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
+    <t>5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0,19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79</t>
   </si>
   <si>
     <t>arg145468</t>
   </si>
   <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94</t>
   </si>
   <si>
     <t>data</t>
@@ -138,7 +138,7 @@
     <t>arg129488</t>
   </si>
   <si>
-    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
+    <t>15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09,11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17</t>
   </si>
   <si>
     <t>arg106273</t>
@@ -147,46 +147,46 @@
     <t>arg119997</t>
   </si>
   <si>
-    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+    <t>22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
   </si>
   <si>
     <t>arg122478</t>
   </si>
   <si>
-    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+    <t>9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65,13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
   </si>
   <si>
     <t>arg110540</t>
   </si>
   <si>
-    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
-  </si>
-  <si>
-    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
+    <t>5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71,64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11</t>
+  </si>
+  <si>
+    <t>16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71,5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71</t>
   </si>
   <si>
     <t>arg207311</t>
   </si>
   <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17,9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86</t>
+  </si>
+  <si>
+    <t>13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
   </si>
   <si>
     <t>arg132199</t>
   </si>
   <si>
-    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
-  </si>
-  <si>
-    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
+    <t>34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77,5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91,34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77</t>
   </si>
   <si>
     <t>e and</t>
@@ -207,10 +207,10 @@
     <t>arg217848</t>
   </si>
   <si>
-    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
+    <t>8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86,26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77</t>
   </si>
   <si>
     <t>e hou</t>
@@ -228,7 +228,7 @@
     <t>industrial sector.</t>
   </si>
   <si>
-    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
+    <t>8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94,35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91</t>
   </si>
   <si>
     <t>ult o</t>
@@ -246,31 +246,31 @@
     <t>e to say that "INDIA WILL LEAD THE WORLD WHEN IT CANNOT LEAD ITSELF!!"</t>
   </si>
   <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
-  </si>
-  <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
-  </si>
-  <si>
-    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6,19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79</t>
+  </si>
+  <si>
+    <t>8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94,49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56</t>
+  </si>
+  <si>
+    <t>14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38,5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6,5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17,14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38</t>
+  </si>
+  <si>
+    <t>22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0,35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91</t>
+  </si>
+  <si>
+    <t>8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86,9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65</t>
   </si>
   <si>
     <t>arg108968</t>
   </si>
   <si>
-    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
+    <t>15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69,35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91</t>
   </si>
   <si>
     <t>n't h</t>
@@ -288,22 +288,22 @@
     <t>n itself and is still cursing itself... &lt;br/&gt; So if it goes on so then it is difficult or even impossible to say that "INDIA WILL LEAD THE WORLD WHEN IT CANNOT LEAD ITSELF!!"</t>
   </si>
   <si>
-    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
+    <t>49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56,8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86</t>
   </si>
   <si>
     <t>arg105946</t>
   </si>
   <si>
-    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
+    <t>14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95,3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67</t>
+  </si>
+  <si>
+    <t>14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95,5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38,3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67</t>
+  </si>
+  <si>
+    <t>14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38,17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86</t>
   </si>
   <si>
     <t>tech</t>
@@ -321,10 +321,10 @@
     <t>the Americas. Well in fact technology is one of the most sophisticated and essential inventions ever created.</t>
   </si>
   <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
-  </si>
-  <si>
-    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6,15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69</t>
+  </si>
+  <si>
+    <t>35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91,49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56</t>
   </si>
   <si>
     <t>ption</t>
@@ -342,19 +342,19 @@
     <t>stem ( not helpful to anyone) , and the main reason brain drain , don't specialy help india in the matter....</t>
   </si>
   <si>
-    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+    <t>15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17,12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6,3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67</t>
+  </si>
+  <si>
+    <t>8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
   </si>
   <si>
     <t>arg133726</t>
   </si>
   <si>
-    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
+    <t>31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18,35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91</t>
   </si>
   <si>
     <t>of In</t>
@@ -372,28 +372,28 @@
     <t>e(don't be sure of the percentage), so an illiterate country can't lead the world.... &lt;br/&gt; 2.India is more into castes, politics, religions and less into development. &lt;br/&gt; 3.the most important thing is that India doesn't have confidence on itself and is still cursing itself... &lt;br/&gt; So if it goes on so then it is difficult or even impossible to say that "INDIA WILL LEAD THE WORLD WHEN IT CANNOT LEAD ITSELF!!"</t>
   </si>
   <si>
-    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
-  </si>
-  <si>
-    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
+    <t>9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65,5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71,13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17,26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69,9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65</t>
   </si>
   <si>
     <t>arg118214</t>
   </si>
   <si>
-    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
+    <t>8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94,47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
+  </si>
+  <si>
+    <t>15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4,8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86</t>
+  </si>
+  <si>
+    <t>31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18,14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38</t>
   </si>
   <si>
     <t>re ju</t>
@@ -411,10 +411,10 @@
     <t>don't do anything and push the people who come up, down. Nobody actually lets anyone succeed. That's why!</t>
   </si>
   <si>
-    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+    <t>15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69,47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
+  </si>
+  <si>
+    <t>35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
   </si>
   <si>
     <t>t her</t>
@@ -432,40 +432,40 @@
     <t>bout the supreme power we cant rely on 2nd or 3rd. moreover the people r lazy they don't have the time 2 think about country's development they r happy at their home</t>
   </si>
   <si>
-    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
-  </si>
-  <si>
-    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
-  </si>
-  <si>
-    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
+    <t>64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11,8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86</t>
+  </si>
+  <si>
+    <t>15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17,5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11</t>
+  </si>
+  <si>
+    <t>15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17,22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91,5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11,11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17</t>
+  </si>
+  <si>
+    <t>15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17,36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86,35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91</t>
+  </si>
+  <si>
+    <t>5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71,47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
+  </si>
+  <si>
+    <t>64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11,36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77,8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94</t>
   </si>
   <si>
     <t>as,i</t>
@@ -483,7 +483,7 @@
     <t>ou to submit more pts. like all these plz. don't mind my words syona, but all these special datas are accurate?reply me soon!</t>
   </si>
   <si>
-    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
+    <t>19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79,35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91</t>
   </si>
   <si>
     <t>o say</t>
@@ -501,19 +501,19 @@
     <t>L LEAD THE WORLD WHEN IT CANNOT LEAD ITSELF!!"</t>
   </si>
   <si>
-    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
-  </si>
-  <si>
-    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
-  </si>
-  <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+    <t>8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86,16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
+  </si>
+  <si>
+    <t>35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91,5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6,13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
   </si>
   <si>
     <t>on 2</t>
@@ -531,7 +531,7 @@
     <t>ver the people r lazy they don't have the time 2 think about country's development they r happy at their home</t>
   </si>
   <si>
-    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
+    <t>14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38,35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91</t>
   </si>
   <si>
     <t>conf</t>
@@ -549,52 +549,52 @@
     <t>and is still cursing itself... &lt;br/&gt; So if it goes on so then it is difficult or even impossible to say that "INDIA WILL LEAD THE WORLD WHEN IT CANNOT LEAD ITSELF!!"</t>
   </si>
   <si>
-    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0,115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
+    <t>5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0,9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65</t>
+  </si>
+  <si>
+    <t>9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65,3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09,8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86</t>
+  </si>
+  <si>
+    <t>11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17,47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
+  </si>
+  <si>
+    <t>47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87,22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0</t>
   </si>
   <si>
     <t>arg110562</t>
   </si>
   <si>
-    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
-  </si>
-  <si>
-    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
+    <t>5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58</t>
+  </si>
+  <si>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67</t>
+  </si>
+  <si>
+    <t>30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58,8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94</t>
+  </si>
+  <si>
+    <t>9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83,19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79</t>
+  </si>
+  <si>
+    <t>30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58,13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11,16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17</t>
+  </si>
+  <si>
+    <t>49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56,5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18,64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11</t>
   </si>
   <si>
     <t>lso b</t>
@@ -612,58 +612,58 @@
     <t>china...due rise of territorial disputes and India interference in Pakistan....as Pakistan China has long term plans ....for example Pak China Economic Corridor and Gawadar Mega Oil City....</t>
   </si>
   <si>
-    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
-  </si>
-  <si>
-    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
-  </si>
-  <si>
-    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
-  </si>
-  <si>
-    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
-  </si>
-  <si>
-    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2</t>
+    <t>47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87,16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
+  </si>
+  <si>
+    <t>11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17,15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17</t>
+  </si>
+  <si>
+    <t>22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0,15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09</t>
+  </si>
+  <si>
+    <t>5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83,26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87,13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71,15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17</t>
+  </si>
+  <si>
+    <t>8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94,19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79</t>
+  </si>
+  <si>
+    <t>8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94,64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11</t>
+  </si>
+  <si>
+    <t>30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58,5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94,14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95</t>
   </si>
   <si>
     <t>arg118660</t>
   </si>
   <si>
-    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
-  </si>
-  <si>
-    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
+    <t>33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95,15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69</t>
+  </si>
+  <si>
+    <t>30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58,5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79,15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09,35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91</t>
   </si>
   <si>
     <t>A WIL</t>
@@ -681,16 +681,16 @@
     <t>WHEN IT CANNOT LEAD ITSELF!!"</t>
   </si>
   <si>
-    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
-  </si>
-  <si>
-    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
-  </si>
-  <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
+    <t>9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65,8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94</t>
+  </si>
+  <si>
+    <t>9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83,15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17</t>
+  </si>
+  <si>
+    <t>22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0,64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11</t>
+  </si>
+  <si>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69</t>
   </si>
   <si>
     <t>." &lt;b</t>
@@ -708,25 +708,25 @@
     <t>r tried to take over the U.S., Americans would be forced to yell, "The red dots are coming, the red dots are coming." ;)</t>
   </si>
   <si>
-    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
-  </si>
-  <si>
-    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
+    <t>9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65,11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17</t>
+  </si>
+  <si>
+    <t>19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79,13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6,36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4,11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17</t>
+  </si>
+  <si>
+    <t>36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0,5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4,35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91</t>
   </si>
   <si>
     <t>EN IT</t>
@@ -744,37 +744,37 @@
     <t>ELF!!"</t>
   </si>
   <si>
-    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86,47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
+  </si>
+  <si>
+    <t>12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5,30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58</t>
+  </si>
+  <si>
+    <t>31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18,11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17</t>
+  </si>
+  <si>
+    <t>9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83,47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
+  </si>
+  <si>
+    <t>16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71,11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17</t>
+  </si>
+  <si>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6,16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0,26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69,16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0,17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86</t>
+  </si>
+  <si>
+    <t>8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94,15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09</t>
+  </si>
+  <si>
+    <t>35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91,36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0</t>
   </si>
   <si>
     <t>ways</t>
@@ -792,13 +792,13 @@
     <t>t logical at all</t>
   </si>
   <si>
-    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
-  </si>
-  <si>
-    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
+    <t>5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0,64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11</t>
+  </si>
+  <si>
+    <t>15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17,16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09,34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77</t>
   </si>
   <si>
     <t>rking</t>
@@ -816,16 +816,16 @@
     <t>well as proper salary.so its the need of the hour to improve our industrial sector.</t>
   </si>
   <si>
-    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2</t>
-  </si>
-  <si>
-    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
+    <t>9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83,31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18</t>
+  </si>
+  <si>
+    <t>8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94,36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38,33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95</t>
+  </si>
+  <si>
+    <t>47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87,17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86</t>
   </si>
   <si>
     <t>ne of</t>
@@ -843,7 +843,7 @@
     <t>ticated and essential inventions ever created.</t>
   </si>
   <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56</t>
   </si>
   <si>
     <t>the</t>
@@ -861,43 +861,43 @@
     <t>n drain , don't specialy help india in the matter....</t>
   </si>
   <si>
-    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
-  </si>
-  <si>
-    <t>100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
-  </si>
-  <si>
-    <t>100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
-  </si>
-  <si>
-    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+    <t>19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79,5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67,49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56</t>
+  </si>
+  <si>
+    <t>21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61,12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
+  </si>
+  <si>
+    <t>3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67,15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17</t>
+  </si>
+  <si>
+    <t>5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0,15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09</t>
+  </si>
+  <si>
+    <t>22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0,13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38,9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65</t>
+  </si>
+  <si>
+    <t>9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83,17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86</t>
+  </si>
+  <si>
+    <t>14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38,9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11,12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79,11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17</t>
+  </si>
+  <si>
+    <t>31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18,47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
   </si>
   <si>
     <t>poor..</t>
@@ -912,13 +912,13 @@
     <t>even imagine them to lead the world...........</t>
   </si>
   <si>
-    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
+    <t>5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71,17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86</t>
+  </si>
+  <si>
+    <t>22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0,19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79</t>
+  </si>
+  <si>
+    <t>15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17,15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69</t>
   </si>
   <si>
     <t>dots</t>
@@ -933,28 +933,28 @@
     <t>" ;)</t>
   </si>
   <si>
-    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
-  </si>
-  <si>
-    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
-  </si>
-  <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
+    <t>47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87,12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65,5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95,8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86</t>
+  </si>
+  <si>
+    <t>22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0,9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95,13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17,49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56</t>
+  </si>
+  <si>
+    <t>11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17,35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91</t>
+  </si>
+  <si>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79</t>
   </si>
   <si>
     <t>ever</t>
@@ -963,46 +963,46 @@
     <t>y day.</t>
   </si>
   <si>
-    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
-  </si>
-  <si>
-    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0,235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
-  </si>
-  <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
+    <t>22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0,30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58</t>
+  </si>
+  <si>
+    <t>64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11,30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58</t>
+  </si>
+  <si>
+    <t>12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5,9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65</t>
+  </si>
+  <si>
+    <t>9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83,5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56,12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56,9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38,8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94</t>
+  </si>
+  <si>
+    <t>14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95,9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65</t>
+  </si>
+  <si>
+    <t>5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17</t>
+  </si>
+  <si>
+    <t>15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4,8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94</t>
+  </si>
+  <si>
+    <t>8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86,13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09,13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95,64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11</t>
+  </si>
+  <si>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95</t>
   </si>
   <si>
     <t>roud</t>
@@ -1020,10 +1020,10 @@
     <t>we will lead the world n be the king of the world in every manner. even 34% scientists in NASA are Indians.</t>
   </si>
   <si>
-    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
+    <t>5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58</t>
   </si>
   <si>
     <t>.....</t>
@@ -1035,37 +1035,37 @@
     <t>....</t>
   </si>
   <si>
-    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
-  </si>
-  <si>
-    <t>74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
-  </si>
-  <si>
-    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
+    <t>34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77,16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83,9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65</t>
+  </si>
+  <si>
+    <t>14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38,64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11</t>
+  </si>
+  <si>
+    <t>15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69,36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11,15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69</t>
+  </si>
+  <si>
+    <t>12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5,36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17,13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0,30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58</t>
+  </si>
+  <si>
+    <t>5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0,34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77</t>
+  </si>
+  <si>
+    <t>21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61,9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77,9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83</t>
   </si>
   <si>
     <t>even</t>
@@ -1080,16 +1080,16 @@
     <t>ves.</t>
   </si>
   <si>
-    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
-  </si>
-  <si>
-    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
-  </si>
-  <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
+    <t>19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79,8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86</t>
+  </si>
+  <si>
+    <t>49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56,15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17</t>
+  </si>
+  <si>
+    <t>11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17,34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77</t>
+  </si>
+  <si>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17</t>
   </si>
   <si>
     <t>educ</t>
@@ -1107,7 +1107,7 @@
     <t>s nothing compared to Western education and it's the superpowers that control the world's economy. &lt;br/&gt; I highly doubt India will ever lead the world, and it doesn't even have the potential to. It should leave that to the superpowers.</t>
   </si>
   <si>
-    <t>100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
+    <t>3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67,34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77</t>
   </si>
   <si>
     <t>e our</t>
@@ -1125,31 +1125,31 @@
     <t>or.</t>
   </si>
   <si>
-    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2</t>
-  </si>
-  <si>
-    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
+    <t>49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56,36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95,5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83,14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95</t>
+  </si>
+  <si>
+    <t>11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17,30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58</t>
+  </si>
+  <si>
+    <t>22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0,33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95</t>
+  </si>
+  <si>
+    <t>49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56,13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95,5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77,17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86</t>
   </si>
   <si>
     <t>ead t</t>
@@ -1167,37 +1167,37 @@
     <t>Who knows maybe in the future that India could fail to lead us. There are still other countries who are more progressive, more literated, more powerful than India, like the USA, United Kingdom, Russia, Japan, etc. This nation doesn't have yet enought potentials and ability to sustain the needs of the people. India is not yet that full of technologies like in the Americas. Well in fact technology is one of the most sophisticated and essential inventions ever created.</t>
   </si>
   <si>
-    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
-  </si>
-  <si>
-    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
-  </si>
-  <si>
-    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+    <t>64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11,3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67</t>
+  </si>
+  <si>
+    <t>5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
+  </si>
+  <si>
+    <t>21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61,9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65</t>
+  </si>
+  <si>
+    <t>5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86,33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95</t>
+  </si>
+  <si>
+    <t>36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0,47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
+  </si>
+  <si>
+    <t>49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56,5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65,22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38,13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91,47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
   </si>
   <si>
     <t>ears.</t>
@@ -1212,13 +1212,13 @@
     <t>even have enough funds to feed all the poor..how can we even imagine them to lead the world...........</t>
   </si>
   <si>
-    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
-  </si>
-  <si>
-    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
+    <t>19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79,12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
+  </si>
+  <si>
+    <t>5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71,34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77</t>
   </si>
   <si>
     <t>dustr</t>
@@ -1230,7 +1230,7 @@
     <t>ctor.</t>
   </si>
   <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6,34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77</t>
   </si>
   <si>
     <t>ed of</t>
@@ -1248,7 +1248,7 @@
     <t>rove our industrial sector.</t>
   </si>
   <si>
-    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+    <t>34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
   </si>
   <si>
     <t>. Ind</t>
@@ -1266,7 +1266,7 @@
     <t>n gold medal of corrosion, terrorism , illeteracy, violence, etc.</t>
   </si>
   <si>
-    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+    <t>34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
   </si>
   <si>
     <t>dia in</t>
@@ -1281,7 +1281,7 @@
     <t>nse and arable land respectively but here we r talking about the supreme power we cant rely on 2nd or 3rd. moreover the people r lazy they don't have the time 2 think about country's development they r happy at their home</t>
   </si>
   <si>
-    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
+    <t>31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18,17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86</t>
   </si>
   <si>
     <t>ries</t>
@@ -1299,55 +1299,55 @@
     <t>gressive, more literated, more powerful than India, like the USA, United Kingdom, Russia, Japan, etc. This nation doesn't have yet enought potentials and ability to sustain the needs of the people. India is not yet that full of technologies like in the Americas. Well in fact technology is one of the most sophisticated and essential inventions ever created.</t>
   </si>
   <si>
-    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2</t>
-  </si>
-  <si>
-    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
-  </si>
-  <si>
-    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
-  </si>
-  <si>
-    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
+    <t>49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56,47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
+  </si>
+  <si>
+    <t>8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86,17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86</t>
+  </si>
+  <si>
+    <t>22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0,14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95</t>
+  </si>
+  <si>
+    <t>30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58,8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86</t>
+  </si>
+  <si>
+    <t>33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95,13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79,36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17,8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86</t>
+  </si>
+  <si>
+    <t>14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38,15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09</t>
+  </si>
+  <si>
+    <t>34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77,12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79,3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67</t>
+  </si>
+  <si>
+    <t>9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83,3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67</t>
+  </si>
+  <si>
+    <t>31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18,19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79</t>
+  </si>
+  <si>
+    <t>9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83,15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69</t>
+  </si>
+  <si>
+    <t>30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58,15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09</t>
+  </si>
+  <si>
+    <t>9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65,64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11</t>
+  </si>
+  <si>
+    <t>33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95,19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79</t>
+  </si>
+  <si>
+    <t>35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91,9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65</t>
   </si>
   <si>
     <t>ses.</t>
@@ -1365,10 +1365,10 @@
     <t>or earn money as possible. &lt;br/&gt; 2.) they always try to make a big issue of useless topics. e.g., if a politian says something about another politian, they try to make it a big issue .</t>
   </si>
   <si>
-    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2</t>
+    <t>8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86,9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18,14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95</t>
   </si>
   <si>
     <t>dget,</t>
@@ -1386,79 +1386,79 @@
     <t>net! &lt;br/&gt; I'm going to get down-voted and insulted, but everything I have written is the truth.</t>
   </si>
   <si>
-    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
-  </si>
-  <si>
-    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
-  </si>
-  <si>
-    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
-  </si>
-  <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
-  </si>
-  <si>
-    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
-  </si>
-  <si>
-    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
-  </si>
-  <si>
-    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
+    <t>5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0,36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91,16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6,22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0,22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91,5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95,5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4,3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67</t>
+  </si>
+  <si>
+    <t>19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79,5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91,13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83,30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58</t>
+  </si>
+  <si>
+    <t>16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71,19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79</t>
+  </si>
+  <si>
+    <t>9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65,16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4,12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38</t>
+  </si>
+  <si>
+    <t>36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0,16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
+  </si>
+  <si>
+    <t>15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69,49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56</t>
+  </si>
+  <si>
+    <t>36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0,9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58,15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69</t>
+  </si>
+  <si>
+    <t>5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
+  </si>
+  <si>
+    <t>13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17,36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18,34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77</t>
   </si>
   <si>
     <t>rease</t>
@@ -1476,49 +1476,49 @@
     <t>k abt. IITians,students who are qualifying iit, they are known to be superbrain.If India is capable of opening hitech institutions,then why we are unable provide them a perfect job of their level.we are giving international status of education.then why unable to take best advantages from them.this is due to brain drain,lack of industrial development,suitable working environment as well as proper salary.so its the need of the hour to improve our industrial sector.</t>
   </si>
   <si>
-    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
-  </si>
-  <si>
-    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2</t>
-  </si>
-  <si>
-    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
-  </si>
-  <si>
-    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2</t>
-  </si>
-  <si>
-    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
+    <t>15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95,16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
+  </si>
+  <si>
+    <t>36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0,31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18</t>
+  </si>
+  <si>
+    <t>5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0,47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
+  </si>
+  <si>
+    <t>33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95,11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17</t>
+  </si>
+  <si>
+    <t>16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67,47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
+  </si>
+  <si>
+    <t>31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18,33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95</t>
+  </si>
+  <si>
+    <t>8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
+  </si>
+  <si>
+    <t>36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0,3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67</t>
+  </si>
+  <si>
+    <t>8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94,33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95</t>
+  </si>
+  <si>
+    <t>5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95</t>
+  </si>
+  <si>
+    <t>36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0,14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38</t>
+  </si>
+  <si>
+    <t>15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17,64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11</t>
   </si>
   <si>
     <t>as lo</t>
@@ -1536,10 +1536,10 @@
     <t>..for example Pak China Economic Corridor and Gawadar Mega Oil City....</t>
   </si>
   <si>
-    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
-  </si>
-  <si>
-    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
+    <t>13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95,35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91</t>
   </si>
   <si>
     <t>tself</t>
@@ -1557,10 +1557,10 @@
     <t>rsing itself... &lt;br/&gt; So if it goes on so then it is difficult or even impossible to say that "INDIA WILL LEAD THE WORLD WHEN IT CANNOT LEAD ITSELF!!"</t>
   </si>
   <si>
-    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
+    <t>36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77,22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0</t>
   </si>
   <si>
     <t>h the</t>
@@ -1578,55 +1578,55 @@
     <t>nt ;)</t>
   </si>
   <si>
-    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
-  </si>
-  <si>
-    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2</t>
-  </si>
-  <si>
-    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
-  </si>
-  <si>
-    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
-  </si>
-  <si>
-    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
-  </si>
-  <si>
-    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0,328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
+    <t>8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94,9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95,5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95,36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71,31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18</t>
+  </si>
+  <si>
+    <t>35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91,3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86,34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77</t>
+  </si>
+  <si>
+    <t>21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61,11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09,64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11</t>
+  </si>
+  <si>
+    <t>5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67,33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95</t>
+  </si>
+  <si>
+    <t>5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71,12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
+  </si>
+  <si>
+    <t>15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17,15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09</t>
+  </si>
+  <si>
+    <t>15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4,49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56</t>
+  </si>
+  <si>
+    <t>8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86,14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38</t>
+  </si>
+  <si>
+    <t>35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91,30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58</t>
   </si>
   <si>
     <t>t bet</t>
@@ -1644,70 +1644,70 @@
     <t>igions, and a lot more............................</t>
   </si>
   <si>
-    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
-  </si>
-  <si>
-    <t>100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
-  </si>
-  <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2</t>
-  </si>
-  <si>
-    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2</t>
-  </si>
-  <si>
-    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2,84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
-  </si>
-  <si>
-    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2</t>
-  </si>
-  <si>
-    <t>74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0,58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2</t>
-  </si>
-  <si>
-    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
+    <t>15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17,19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79</t>
+  </si>
+  <si>
+    <t>21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83,33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95</t>
+  </si>
+  <si>
+    <t>64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11,5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67,8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86</t>
+  </si>
+  <si>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11</t>
+  </si>
+  <si>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95</t>
+  </si>
+  <si>
+    <t>36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0,8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86</t>
+  </si>
+  <si>
+    <t>16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71,8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94</t>
+  </si>
+  <si>
+    <t>13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18</t>
+  </si>
+  <si>
+    <t>36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0,9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65</t>
+  </si>
+  <si>
+    <t>21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61,16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71</t>
+  </si>
+  <si>
+    <t>12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5,15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09</t>
+  </si>
+  <si>
+    <t>5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09,33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95</t>
+  </si>
+  <si>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91</t>
+  </si>
+  <si>
+    <t>5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71,31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18</t>
+  </si>
+  <si>
+    <t>12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5,5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4,47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
+  </si>
+  <si>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6,31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18</t>
+  </si>
+  <si>
+    <t>33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95,15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17</t>
   </si>
   <si>
     <t>rpowe</t>
@@ -1716,22 +1716,22 @@
     <t>rs.</t>
   </si>
   <si>
-    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2,329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
+    <t>14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38,12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71,11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17</t>
+  </si>
+  <si>
+    <t>9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65,33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95</t>
+  </si>
+  <si>
+    <t>35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91,33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95</t>
   </si>
   <si>
     <t>spira</t>
@@ -1749,10 +1749,10 @@
     <t>ans nothing is impossible, n we r proud to be Indians n we will lead the world n be the king of the world in every manner. even 34% scientists in NASA are Indians.</t>
   </si>
   <si>
-    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
-  </si>
-  <si>
-    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
+    <t>49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56,22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95,34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77</t>
   </si>
   <si>
     <t>.then</t>
@@ -1770,58 +1770,58 @@
     <t>ake best advantages from them.this is due to brain drain,lack of industrial development,suitable working environment as well as proper salary.so its the need of the hour to improve our industrial sector.</t>
   </si>
   <si>
-    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
-  </si>
-  <si>
-    <t>74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
-  </si>
-  <si>
-    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
-  </si>
-  <si>
-    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2,212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
-  </si>
-  <si>
-    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0,188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
+    <t>14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38,30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58</t>
+  </si>
+  <si>
+    <t>5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09,49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56</t>
+  </si>
+  <si>
+    <t>49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56,19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79</t>
+  </si>
+  <si>
+    <t>15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
+  </si>
+  <si>
+    <t>12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5,26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95,15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17</t>
+  </si>
+  <si>
+    <t>14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95,26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5,9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
+  </si>
+  <si>
+    <t>15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17,26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61,19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79</t>
+  </si>
+  <si>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6,17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86</t>
+  </si>
+  <si>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6,49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56</t>
+  </si>
+  <si>
+    <t>49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56,14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38</t>
+  </si>
+  <si>
+    <t>14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95,47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
+  </si>
+  <si>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6,15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09</t>
+  </si>
+  <si>
+    <t>49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56,34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77</t>
   </si>
   <si>
     <t>from</t>
@@ -1839,7 +1839,7 @@
     <t>e to brain drain,lack of industrial development,suitable working environment as well as proper salary.so its the need of the hour to improve our industrial sector.</t>
   </si>
   <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0,341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86,9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65</t>
   </si>
   <si>
     <t>.) th</t>
@@ -1857,10 +1857,10 @@
     <t>make a big issue of useless topics. e.g., if a politian says something about another politian, they try to make it a big issue .</t>
   </si>
   <si>
-    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
-  </si>
-  <si>
-    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
+    <t>47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87,64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11</t>
+  </si>
+  <si>
+    <t>9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65,34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77</t>
   </si>
   <si>
     <t>ntern</t>
@@ -1878,64 +1878,64 @@
     <t>f education.then why unable to take best advantages from them.this is due to brain drain,lack of industrial development,suitable working environment as well as proper salary.so its the need of the hour to improve our industrial sector.</t>
   </si>
   <si>
-    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0,413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
-  </si>
-  <si>
-    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2</t>
-  </si>
-  <si>
-    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0,100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2,337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
-  </si>
-  <si>
-    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0,105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
-  </si>
-  <si>
-    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0,89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
-  </si>
-  <si>
-    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0,58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
-  </si>
-  <si>
-    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0,452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
-  </si>
-  <si>
-    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2</t>
-  </si>
-  <si>
-    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0,328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
+    <t>64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69,8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86</t>
+  </si>
+  <si>
+    <t>49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56,64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11</t>
+  </si>
+  <si>
+    <t>16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71,14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95</t>
+  </si>
+  <si>
+    <t>8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94,3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67</t>
+  </si>
+  <si>
+    <t>30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58,3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67</t>
+  </si>
+  <si>
+    <t>14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95,11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17</t>
+  </si>
+  <si>
+    <t>5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71,15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95,15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69</t>
+  </si>
+  <si>
+    <t>64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11,9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17,12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38,15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17</t>
+  </si>
+  <si>
+    <t>5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71,5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18,15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17</t>
+  </si>
+  <si>
+    <t>47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87,15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17</t>
+  </si>
+  <si>
+    <t>15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17,30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58</t>
+  </si>
+  <si>
+    <t>9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65,26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09,31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18</t>
+  </si>
+  <si>
+    <t>34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77,14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38</t>
   </si>
   <si>
     <t>peop</t>
@@ -1953,13 +1953,13 @@
     <t>people with good minds are in some foreign country getting a Nobel prize while the others are just stuck ups who don't do anything and push the people who come up, down. Nobody actually lets anyone succeed. That's why!</t>
   </si>
   <si>
-    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0,269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2,216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0,684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
+    <t>9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65,47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
+  </si>
+  <si>
+    <t>31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18,30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58</t>
+  </si>
+  <si>
+    <t>19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79,34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77</t>
   </si>
   <si>
     <t>ment,</t>
@@ -1974,13 +1974,13 @@
     <t>environment as well as proper salary.so its the need of the hour to improve our industrial sector.</t>
   </si>
   <si>
-    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0,57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0,332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
-  </si>
-  <si>
-    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0,74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69,11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09,21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
+  </si>
+  <si>
+    <t>22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0,12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
   </si>
 </sst>
 </file>
